--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Sr No.</t>
   </si>
@@ -415,73 +415,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,7 +489,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -542,6 +542,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -570,27 +591,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -634,538 +634,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1480,7 +948,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1488,176 +956,177 @@
     <col min="1" max="1" width="6" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="12" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="19" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="20"/>
+      <c r="R1" s="30"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="16" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="16" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="19" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="2"/>
@@ -1666,144 +1135,108 @@
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="35" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="35" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>17</v>
-      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
       <c r="S5" s="2"/>
       <c r="T5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="37" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="37" t="s">
+      <c r="L6" s="18"/>
+      <c r="M6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
       <c r="S6" s="2"/>
       <c r="T6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="37" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="37" t="s">
+      <c r="L7" s="18"/>
+      <c r="M7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>17</v>
-      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
       <c r="S7" s="2"/>
       <c r="T7" s="8" t="s">
         <v>23</v>
@@ -1905,78 +1338,78 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O1:P2"/>
-    <mergeCell ref="Q1:R2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J7">
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="17" priority="24" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E7">
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2011,8 +1444,10 @@
     <hyperlink ref="I4" r:id="rId1"/>
     <hyperlink ref="O4" r:id="rId2"/>
     <hyperlink ref="P4" r:id="rId3"/>
+    <hyperlink ref="Q4" r:id="rId4"/>
+    <hyperlink ref="R4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$P$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$P$337</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Sr No.</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Frequency of Use</t>
   </si>
   <si>
-    <t>Tags/ Keywords</t>
-  </si>
-  <si>
     <t>Platform Links/Status</t>
   </si>
   <si>
@@ -103,6 +100,18 @@
   </si>
   <si>
     <t>Swap</t>
+  </si>
+  <si>
+    <t>In-place</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Stack</t>
   </si>
 </sst>
 </file>
@@ -375,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -430,51 +439,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -482,6 +485,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,7 +501,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -557,62 +569,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -945,10 +901,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,314 +913,310 @@
     <col min="2" max="2" width="25.5546875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="12" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="13" style="12" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="12" style="12" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="13" customWidth="1"/>
     <col min="18" max="18" width="6.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="15" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="N3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="15" t="s">
+      <c r="P3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17">
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19" t="s">
+      <c r="G4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>18</v>
+      <c r="N4" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="O4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="I5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="R5" s="2"/>
+      <c r="S5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>3</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="24" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="M7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>4</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="2"/>
+      <c r="S7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1280,15 +1232,14 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="2"/>
+      <c r="S9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1304,105 +1255,165 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="P1:Q2"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N1:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J3:J7">
-    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J3)))</formula>
+  <conditionalFormatting sqref="I3:I8 J4:J8 L4:M8">
+    <cfRule type="containsText" dxfId="13" priority="28" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
+  <conditionalFormatting sqref="I4:J8 L4:M8">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="26" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="27" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="17" priority="24" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E7">
+  <conditionalFormatting sqref="E4:E8">
     <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
@@ -1413,39 +1424,39 @@
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T7">
+  <conditionalFormatting sqref="S4:S7">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",T4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("To Do",S4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T7">
+  <conditionalFormatting sqref="S4:S7">
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",T4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Done",S4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",T4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Review",S4)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",T4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Attempted",S4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T9:T11">
+  <conditionalFormatting sqref="S9:S11">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",T9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Easy",S9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",T9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",S9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",T9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hard",S9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-    <hyperlink ref="O4" r:id="rId2"/>
-    <hyperlink ref="P4" r:id="rId3"/>
-    <hyperlink ref="Q4" r:id="rId4"/>
-    <hyperlink ref="R4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="N4" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="P4" r:id="rId4"/>
+    <hyperlink ref="Q4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="31">
   <si>
     <t>Sr No.</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Platform Links/ Status</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Complementary Pair Finding</t>
   </si>
 </sst>
 </file>
@@ -521,6 +527,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -549,15 +564,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,7 +571,28 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1091,10 +1118,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,12 +1131,12 @@
     <col min="3" max="3" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="9" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
@@ -1119,91 +1146,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="27" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="28"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="2"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="22" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="30"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="33"/>
       <c r="R2" s="2"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="24"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1271,10 +1298,10 @@
       <c r="O4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="18" t="s">
+      <c r="P4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="21" t="s">
         <v>20</v>
       </c>
       <c r="R4" s="5"/>
@@ -1282,7 +1309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -1292,12 +1319,18 @@
       <c r="C5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" s="21" t="s">
         <v>20</v>
       </c>
@@ -1322,10 +1355,10 @@
       <c r="O5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="18" t="s">
+      <c r="P5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="21" t="s">
         <v>20</v>
       </c>
       <c r="R5" s="5"/>
@@ -1657,9 +1690,9 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1678,9 +1711,8 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15"/>
+      <c r="D15"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1698,16 +1730,32 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
       <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:S11"/>
   <mergeCells count="14">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:M1"/>
@@ -1717,119 +1765,135 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I7">
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M7">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",L4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",L4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",L4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S7">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",S4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",S4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",S4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",S4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E6">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E4 E6">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9:S11">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",S9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",S9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",S9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:M11 I8:J11">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",I8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",I8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",I8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",I8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E9">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1840,8 +1904,12 @@
     <hyperlink ref="O4" r:id="rId5"/>
     <hyperlink ref="N5" r:id="rId6"/>
     <hyperlink ref="O5" r:id="rId7"/>
+    <hyperlink ref="P4" r:id="rId8"/>
+    <hyperlink ref="Q4" r:id="rId9"/>
+    <hyperlink ref="P5" r:id="rId10"/>
+    <hyperlink ref="Q5" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$S$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$Q$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
   <si>
     <t>Sr No.</t>
   </si>
@@ -115,13 +115,22 @@
   </si>
   <si>
     <t>Complementary Pair Finding</t>
+  </si>
+  <si>
+    <t>Count Primes</t>
+  </si>
+  <si>
+    <t>Sieve</t>
+  </si>
+  <si>
+    <t>Prime Counting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,17 +153,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -193,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -457,12 +470,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -476,9 +504,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -515,16 +540,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,7 +602,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
@@ -1117,537 +1151,548 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30" t="s">
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="30" t="s">
+      <c r="O1" s="33"/>
+      <c r="P1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="31"/>
+      <c r="Q1" s="33"/>
       <c r="R1" s="2"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="25" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="2"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="8"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="14" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="3"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="10" t="s">
+      <c r="N4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="11" t="s">
+      <c r="N5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="12" t="s">
+      <c r="B6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="17" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="K7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="13" t="s">
+      <c r="N7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="10" t="s">
+      <c r="K8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="5"/>
+      <c r="N8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="8"/>
       <c r="S8"/>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="20" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="11" t="s">
+      <c r="K9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="5"/>
+      <c r="N9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="8"/>
       <c r="S9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="K10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="5"/>
+      <c r="N10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="8"/>
       <c r="S10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="17" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="6" t="s">
+      <c r="N11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1664,11 +1709,10 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1685,11 +1729,10 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1706,11 +1749,10 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15" s="3"/>
@@ -1726,7 +1768,6 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1754,7 +1795,7 @@
       <c r="D20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:S11"/>
+  <autoFilter ref="A3:S3"/>
   <mergeCells count="14">
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
@@ -1908,8 +1949,12 @@
     <hyperlink ref="Q4" r:id="rId9"/>
     <hyperlink ref="P5" r:id="rId10"/>
     <hyperlink ref="Q5" r:id="rId11"/>
+    <hyperlink ref="H6" r:id="rId12"/>
+    <hyperlink ref="K6" r:id="rId13"/>
+    <hyperlink ref="N6" r:id="rId14"/>
+    <hyperlink ref="O6" r:id="rId15"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -561,6 +561,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -568,36 +598,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1157,7 +1157,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1182,91 +1182,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="32" t="s">
+      <c r="O1" s="30"/>
+      <c r="P1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="33"/>
+      <c r="Q1" s="30"/>
       <c r="R1" s="2"/>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="35"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
       <c r="R2" s="8"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="29"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1447,10 +1447,10 @@
       <c r="O6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="21" t="s">
+      <c r="P6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="22" t="s">
         <v>20</v>
       </c>
       <c r="R6" s="8"/>
@@ -1797,6 +1797,11 @@
   </sheetData>
   <autoFilter ref="A3:S3"/>
   <mergeCells count="14">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:M1"/>
@@ -1806,11 +1811,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="I4:I7">
     <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Done">
@@ -1953,8 +1953,10 @@
     <hyperlink ref="K6" r:id="rId13"/>
     <hyperlink ref="N6" r:id="rId14"/>
     <hyperlink ref="O6" r:id="rId15"/>
+    <hyperlink ref="P6" r:id="rId16"/>
+    <hyperlink ref="Q6" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId16"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$Q$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$R$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="41">
   <si>
     <t>Sr No.</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>Prime Counting</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Search Algorithm</t>
+  </si>
+  <si>
+    <t>Tags/ Keywords</t>
+  </si>
+  <si>
+    <t>Divide and Conquer</t>
+  </si>
+  <si>
+    <t>Array Manipulation, In-place</t>
+  </si>
+  <si>
+    <t>Hash Map, Complementary Pair</t>
+  </si>
+  <si>
+    <t>Sieve of Eratosthenes, Segmented Sieve</t>
   </si>
 </sst>
 </file>
@@ -561,6 +582,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,15 +619,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -605,7 +626,56 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1153,11 +1223,11 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,125 +1239,131 @@
     <col min="5" max="5" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24" t="s">
+      <c r="R1" s="33"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="M2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="28"/>
       <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="13" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="P3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="R3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -1309,42 +1385,45 @@
       <c r="G4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>21</v>
+      <c r="H4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -1366,26 +1445,26 @@
       <c r="G5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>22</v>
+      <c r="H5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="O5" s="19" t="s">
         <v>20</v>
@@ -1396,12 +1475,15 @@
       <c r="Q5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="10" t="s">
+      <c r="R5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -1423,26 +1505,26 @@
       <c r="G6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>22</v>
+      <c r="H6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="O6" s="22" t="s">
         <v>20</v>
@@ -1453,59 +1535,75 @@
       <c r="Q6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="11" t="s">
+      <c r="R6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>21</v>
+      <c r="F7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>21</v>
+      <c r="K7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="21" t="s">
+      <c r="N7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="Q7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -1517,26 +1615,24 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>22</v>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>22</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="21" t="s">
-        <v>20</v>
+      <c r="N8" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>20</v>
@@ -1547,10 +1643,13 @@
       <c r="Q8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8"/>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -1562,26 +1661,24 @@
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>24</v>
+      <c r="H9" s="18"/>
+      <c r="I9" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>24</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>20</v>
+      <c r="N9" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="O9" s="21" t="s">
         <v>20</v>
@@ -1592,12 +1689,15 @@
       <c r="Q9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="4" t="s">
+      <c r="R9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -1609,26 +1709,24 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>26</v>
+      <c r="H10" s="18"/>
+      <c r="I10" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>26</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="21" t="s">
-        <v>20</v>
+      <c r="N10" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="O10" s="21" t="s">
         <v>20</v>
@@ -1639,12 +1737,15 @@
       <c r="Q10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="4" t="s">
+      <c r="R10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -1656,26 +1757,24 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>21</v>
+      <c r="H11" s="18"/>
+      <c r="I11" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>21</v>
+      <c r="K11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="21" t="s">
-        <v>20</v>
+      <c r="N11" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="O11" s="21" t="s">
         <v>20</v>
@@ -1686,277 +1785,486 @@
       <c r="Q11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="5" t="s">
+      <c r="R11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15"/>
-      <c r="D15"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>7</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
       <c r="B18"/>
+      <c r="C18"/>
       <c r="D18"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
       <c r="B19"/>
-      <c r="C19"/>
       <c r="D19"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
     </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:S3"/>
-  <mergeCells count="14">
+  <autoFilter ref="A3:T3"/>
+  <mergeCells count="15">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:P2"/>
+    <mergeCell ref="Q1:R2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="H1:H3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:M2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I4:I7">
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",I4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",I4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",I4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",I4)))</formula>
+  <conditionalFormatting sqref="J4:J7">
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="45" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
+  <conditionalFormatting sqref="K4:K7">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:M7">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",L4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",L4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",L4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",L4)))</formula>
+  <conditionalFormatting sqref="M4:N7">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="36" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S7">
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",S4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",S4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",S4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",S4)))</formula>
+  <conditionalFormatting sqref="T4:T7">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",T4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",T4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",T4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",T4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 E6">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E4 E6:E7 E12:E13">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="23" priority="29" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S9:S11">
+  <conditionalFormatting sqref="T9:T11">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",T9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",T9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",T9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:N15 J12:K15">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
     <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",S9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",S9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",S9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:M11 I8:J11">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",I8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",I8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",I8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",I8)))</formula>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E9">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E7)))</formula>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:N11 J8:K11">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E11">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="N4" r:id="rId4"/>
-    <hyperlink ref="O4" r:id="rId5"/>
-    <hyperlink ref="N5" r:id="rId6"/>
-    <hyperlink ref="O5" r:id="rId7"/>
-    <hyperlink ref="P4" r:id="rId8"/>
-    <hyperlink ref="Q4" r:id="rId9"/>
-    <hyperlink ref="P5" r:id="rId10"/>
-    <hyperlink ref="Q5" r:id="rId11"/>
-    <hyperlink ref="H6" r:id="rId12"/>
-    <hyperlink ref="K6" r:id="rId13"/>
-    <hyperlink ref="N6" r:id="rId14"/>
-    <hyperlink ref="O6" r:id="rId15"/>
-    <hyperlink ref="P6" r:id="rId16"/>
-    <hyperlink ref="Q6" r:id="rId17"/>
+    <hyperlink ref="L5" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="O4" r:id="rId4"/>
+    <hyperlink ref="P4" r:id="rId5"/>
+    <hyperlink ref="O5" r:id="rId6"/>
+    <hyperlink ref="P5" r:id="rId7"/>
+    <hyperlink ref="Q4" r:id="rId8"/>
+    <hyperlink ref="R4" r:id="rId9"/>
+    <hyperlink ref="Q5" r:id="rId10"/>
+    <hyperlink ref="R5" r:id="rId11"/>
+    <hyperlink ref="I6" r:id="rId12"/>
+    <hyperlink ref="L6" r:id="rId13"/>
+    <hyperlink ref="O6" r:id="rId14"/>
+    <hyperlink ref="P6" r:id="rId15"/>
+    <hyperlink ref="Q6" r:id="rId16"/>
+    <hyperlink ref="R6" r:id="rId17"/>
+    <hyperlink ref="I7" r:id="rId18"/>
+    <hyperlink ref="L7" r:id="rId19"/>
+    <hyperlink ref="O7" r:id="rId20"/>
+    <hyperlink ref="P7" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId18"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -582,6 +582,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,36 +619,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1227,7 +1227,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,96 +1253,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="32" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="33"/>
+      <c r="R1" s="30"/>
       <c r="S1" s="2"/>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="27" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="27" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
       <c r="S2" s="8"/>
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="29"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1592,10 +1592,10 @@
       <c r="P7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="21" t="s">
+      <c r="Q7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="22" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="8"/>
@@ -2075,6 +2075,11 @@
   </sheetData>
   <autoFilter ref="A3:T3"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="I1:N1"/>
@@ -2085,11 +2090,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J7">
     <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Done">
@@ -2263,8 +2263,10 @@
     <hyperlink ref="L7" r:id="rId19"/>
     <hyperlink ref="O7" r:id="rId20"/>
     <hyperlink ref="P7" r:id="rId21"/>
+    <hyperlink ref="Q7" r:id="rId22"/>
+    <hyperlink ref="R7" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId22"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="44">
   <si>
     <t>Sr No.</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>Sieve of Eratosthenes, Segmented Sieve</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Peak Finding</t>
+  </si>
+  <si>
+    <t>Divide and Conquer, Unimodal Array</t>
   </si>
 </sst>
 </file>
@@ -582,6 +591,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -610,15 +628,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1227,7 +1236,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,96 +1262,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="30"/>
+      <c r="R1" s="33"/>
       <c r="S1" s="2"/>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="35"/>
       <c r="S2" s="8"/>
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1603,41 +1612,53 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="20" t="s">
+      <c r="H8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="21" t="s">
@@ -1994,13 +2015,7 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="A17"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2013,13 +2028,9 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2075,11 +2086,6 @@
   </sheetData>
   <autoFilter ref="A3:T3"/>
   <mergeCells count="15">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="I1:N1"/>
@@ -2090,6 +2096,11 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="H1:H3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J7">
     <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Done">
@@ -2265,8 +2276,12 @@
     <hyperlink ref="P7" r:id="rId21"/>
     <hyperlink ref="Q7" r:id="rId22"/>
     <hyperlink ref="R7" r:id="rId23"/>
+    <hyperlink ref="I8" r:id="rId24"/>
+    <hyperlink ref="L8" r:id="rId25"/>
+    <hyperlink ref="O8" r:id="rId26"/>
+    <hyperlink ref="P8" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId24"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -591,6 +591,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,36 +628,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1236,7 +1236,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,96 +1262,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="32" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="33"/>
+      <c r="R1" s="30"/>
       <c r="S1" s="2"/>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="27" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="27" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
       <c r="S2" s="8"/>
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="29"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1661,10 +1661,10 @@
       <c r="P8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="21" t="s">
+      <c r="Q8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="S8" s="8"/>
@@ -2086,6 +2086,11 @@
   </sheetData>
   <autoFilter ref="A3:T3"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="I1:N1"/>
@@ -2096,11 +2101,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J7">
     <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Done">
@@ -2280,8 +2280,10 @@
     <hyperlink ref="L8" r:id="rId25"/>
     <hyperlink ref="O8" r:id="rId26"/>
     <hyperlink ref="P8" r:id="rId27"/>
+    <hyperlink ref="Q8" r:id="rId28"/>
+    <hyperlink ref="R8" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId28"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId30"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="46">
   <si>
     <t>Sr No.</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Divide and Conquer, Unimodal Array</t>
+  </si>
+  <si>
+    <t>Sum Of Max And Min</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -570,9 +576,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,6 +592,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,13 +633,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -635,7 +647,357 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="92">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1232,11 +1594,11 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,96 +1624,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="30"/>
+      <c r="R1" s="32"/>
       <c r="S1" s="2"/>
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
       <c r="S2" s="8"/>
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1376,7 +1738,7 @@
       <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -1397,34 +1759,34 @@
       <c r="H4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="I4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="19" t="s">
+      <c r="M4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="S4" s="8"/>
@@ -1433,10 +1795,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -1457,34 +1819,34 @@
       <c r="H5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="19" t="s">
+      <c r="I5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>20</v>
       </c>
       <c r="S5" s="8"/>
@@ -1493,58 +1855,58 @@
       </c>
     </row>
     <row r="6" spans="1:20" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="22" t="s">
+      <c r="I6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="21" t="s">
         <v>20</v>
       </c>
       <c r="S6" s="8"/>
@@ -1559,52 +1921,52 @@
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="22" t="s">
+      <c r="I7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="8"/>
@@ -1628,78 +1990,82 @@
       <c r="E8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="22" t="s">
+      <c r="I8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="21" t="s">
         <v>20</v>
       </c>
       <c r="S8" s="8"/>
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="E9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>24</v>
+      <c r="L9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="O9" s="21" t="s">
         <v>20</v>
@@ -1707,10 +2073,10 @@
       <c r="P9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="21" t="s">
+      <c r="Q9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="20" t="s">
         <v>20</v>
       </c>
       <c r="S9" s="8"/>
@@ -1719,46 +2085,46 @@
       </c>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="11" t="s">
+      <c r="L10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="21" t="s">
+      <c r="O10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="20" t="s">
         <v>20</v>
       </c>
       <c r="S10" s="8"/>
@@ -1771,42 +2137,42 @@
         <v>8</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="21" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="20" t="s">
         <v>20</v>
       </c>
       <c r="S11" s="8"/>
@@ -1816,7 +2182,7 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1824,273 +2190,1148 @@
       <c r="E12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="9" t="s">
+      <c r="L12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="3"/>
+      <c r="O12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>6</v>
+      <c r="A13" s="15">
+        <v>10</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="10" t="s">
+      <c r="L13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T13" s="3"/>
+      <c r="O13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>7</v>
+      <c r="A14" s="15">
+        <v>11</v>
       </c>
       <c r="B14" s="16"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="11" t="s">
+      <c r="L14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="3"/>
+      <c r="O14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>14</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>19</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>20</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
+        <v>21</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>22</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>23</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>24</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
+        <v>25</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>26</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>27</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>28</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
+        <v>29</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>30</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
+        <v>31</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>32</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39"/>
+      <c r="D39"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:T3"/>
   <mergeCells count="15">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="I1:N1"/>
@@ -2101,155 +3342,340 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="H1:H3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="44" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="45" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="88" priority="95" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="85" priority="90" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="84" priority="91" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="36" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="81" priority="86" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="80" priority="87" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T7">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",T4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 E6:E7 E12:E13">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E4 E6:E7 E32:E33">
+    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="29" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T11">
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",T9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:N35 J32:K35">
+    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="71" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="72" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="73" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E35">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E34)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:N11 J8:K11">
+    <cfRule type="containsText" dxfId="56" priority="54" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="57" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E11">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28:N31 J28:K31">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E25">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:N27 J24:K27">
+    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:N23 J20:K23">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E23">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E17">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:N19 J16:K19">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E13">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:N15 J12:K15">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="23" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8:N11 J8:K11">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E11">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2282,8 +3708,11 @@
     <hyperlink ref="P8" r:id="rId27"/>
     <hyperlink ref="Q8" r:id="rId28"/>
     <hyperlink ref="R8" r:id="rId29"/>
+    <hyperlink ref="I9" r:id="rId30"/>
+    <hyperlink ref="O9" r:id="rId31"/>
+    <hyperlink ref="P9" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId30"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="53">
   <si>
     <t>Sr No.</t>
   </si>
@@ -160,13 +160,34 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Sum of even &amp; odd</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Max &amp; Min Sum</t>
+  </si>
+  <si>
+    <t>Array Manipulation</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>Sum of Elements</t>
+  </si>
+  <si>
+    <t>Even-Odd Calculation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +225,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -526,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -642,12 +671,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="98">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1597,8 +1671,8 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2032,7 +2106,7 @@
       <c r="S8" s="8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -2042,21 +2116,29 @@
       <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="F9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="I9" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>45</v>
@@ -2073,10 +2155,10 @@
       <c r="P9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="20" t="s">
+      <c r="Q9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="21" t="s">
         <v>20</v>
       </c>
       <c r="S9" s="8"/>
@@ -2084,41 +2166,53 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="19" t="s">
+      <c r="F10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="20" t="s">
@@ -3274,9 +3368,14 @@
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3289,12 +3388,10 @@
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+      <c r="A39"/>
       <c r="B39"/>
-      <c r="D39"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="C39"/>
+      <c r="E39"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -3307,9 +3404,10 @@
       <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
-      <c r="D40"/>
+      <c r="E40"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B41"/>
@@ -3349,333 +3447,344 @@
     <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="97" priority="95" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="96" priority="96" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="95" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="94" priority="98" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="87" priority="88" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="93" priority="91" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="92" priority="92" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="90" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="91" priority="93" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="91" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="90" priority="94" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="83" priority="84" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="89" priority="87" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="85" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="86" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="87" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T7">
-    <cfRule type="containsText" dxfId="79" priority="80" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="85" priority="83" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",T4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 E6:E7 E32:E33">
-    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T11">
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:N35 J32:K35">
-    <cfRule type="containsText" dxfId="69" priority="70" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="71" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="72" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="73" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E35">
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="containsText" dxfId="59" priority="58" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E8">
+    <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:N11 J8:K11">
-    <cfRule type="containsText" dxfId="56" priority="54" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="62" priority="57" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="61" priority="58" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="57" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E11">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E10)))</formula>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="58" priority="54" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="55" priority="51" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:N31 J28:K31">
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="52" priority="47" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="51" priority="48" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E25">
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="45" priority="41" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="44" priority="42" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M24:N27 J24:K27">
-    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="42" priority="37" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="41" priority="38" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="37" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:N23 J20:K23">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:N19 J16:K19">
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:N15 J12:K15">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hard",E9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Easy",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3711,8 +3820,13 @@
     <hyperlink ref="I9" r:id="rId30"/>
     <hyperlink ref="O9" r:id="rId31"/>
     <hyperlink ref="P9" r:id="rId32"/>
+    <hyperlink ref="I10" r:id="rId33"/>
+    <hyperlink ref="Q9" r:id="rId34"/>
+    <hyperlink ref="R9" r:id="rId35"/>
+    <hyperlink ref="O10" r:id="rId36"/>
+    <hyperlink ref="P10" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId33"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="56">
   <si>
     <t>Sr No.</t>
   </si>
@@ -181,13 +181,22 @@
   </si>
   <si>
     <t>Even-Odd Calculation</t>
+  </si>
+  <si>
+    <t>Find Duplicate in Array</t>
+  </si>
+  <si>
+    <t>Hashing, Cycle Detection</t>
+  </si>
+  <si>
+    <t>Frequency Counting, Floyd's Tortoise and Hare (Cycle Detection)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,14 +234,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -555,25 +556,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -623,13 +615,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,16 +654,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1668,1768 +1657,1687 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="31" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26" t="s">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="26" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="3"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="13" t="s">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+    <row r="4" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9" t="s">
+      <c r="I4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="10" t="s">
+      <c r="I5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="11" t="s">
+      <c r="I6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="12" t="s">
+      <c r="I7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+    <row r="8" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="8"/>
-      <c r="T8"/>
+      <c r="I8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="19" t="s">
+      <c r="I9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="8"/>
-      <c r="T9" s="4" t="s">
+      <c r="O9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="19" t="s">
+      <c r="I10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="4" t="s">
+      <c r="O10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+    <row r="11" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="5" t="s">
+      <c r="B11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="36" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="36" t="s">
+      <c r="L12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="20" t="s">
+      <c r="O12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="37" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="37" t="s">
+      <c r="L13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="20" t="s">
+      <c r="O13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="38" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="38" t="s">
+      <c r="L14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="20" t="s">
+      <c r="O14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="20" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15">
+      <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="36" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="36" t="s">
+      <c r="L16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="36" t="s">
+      <c r="N16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="20" t="s">
+      <c r="O16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="37" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="37" t="s">
+      <c r="L17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="20" t="s">
+      <c r="O17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="38" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="38" t="s">
+      <c r="L18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="20" t="s">
+      <c r="O18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="20" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="36" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="36" t="s">
+      <c r="L20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="36" t="s">
+      <c r="N20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="20" t="s">
+      <c r="O20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="37" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="37" t="s">
+      <c r="L21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="20" t="s">
+      <c r="O21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="38" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="38" t="s">
+      <c r="L22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="20" t="s">
+      <c r="O22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <v>20</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="20" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15">
-        <v>21</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16" t="s">
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>21</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="36" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="36" t="s">
+      <c r="L24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="N24" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="20" t="s">
+      <c r="O24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="37" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="37" t="s">
+      <c r="K25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="37" t="s">
+      <c r="L25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="37" t="s">
+      <c r="N25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="20" t="s">
+      <c r="O25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="38" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="38" t="s">
+      <c r="L26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="38" t="s">
+      <c r="N26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="20" t="s">
+      <c r="O26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="20" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15">
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
         <v>25</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="36" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="36" t="s">
+      <c r="L28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="N28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="20" t="s">
+      <c r="O28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="37" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="K29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="37" t="s">
+      <c r="L29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="37" t="s">
+      <c r="N29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="20" t="s">
+      <c r="O29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
         <v>27</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="38" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="38" t="s">
+      <c r="K30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="38" t="s">
+      <c r="L30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="38" t="s">
+      <c r="N30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O30" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="20" t="s">
+      <c r="O30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="20" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15">
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
         <v>29</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="36" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="36" t="s">
+      <c r="L32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N32" s="36" t="s">
+      <c r="N32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O32" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T32" s="3"/>
+      <c r="O32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
         <v>30</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="37" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="37" t="s">
+      <c r="K33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L33" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="37" t="s">
+      <c r="L33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N33" s="37" t="s">
+      <c r="N33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O33" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T33" s="3"/>
+      <c r="O33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
         <v>31</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="16" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="38" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="38" t="s">
+      <c r="K34" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L34" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="38" t="s">
+      <c r="L34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="38" t="s">
+      <c r="N34" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O34" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T34" s="3"/>
+      <c r="O34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
         <v>32</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="16" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T35" s="3"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="T36" s="3"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="E39"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B42"/>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:T3"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="I1:N1"/>
@@ -3440,351 +3348,346 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="97" priority="95" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="96" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="97" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="98" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="94" priority="101" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="93" priority="91" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="92" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="93" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="91" priority="96" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="94" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="90" priority="97" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="89" priority="87" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="88" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="89" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="87" priority="92" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="90" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="86" priority="93" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T7">
-    <cfRule type="containsText" dxfId="85" priority="83" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="83" priority="88" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",T4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 E6:E7 E32:E33">
-    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T11">
-    <cfRule type="containsText" dxfId="78" priority="77" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="78" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="76" priority="82" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:N35 J32:K35">
-    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="73" priority="78" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="72" priority="79" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34:E35">
-    <cfRule type="containsText" dxfId="71" priority="67" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="68" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="68" priority="64" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="65" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="65" priority="61" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="62" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:N11 J8:K11">
-    <cfRule type="containsText" dxfId="62" priority="57" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="62" priority="60" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="58" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="59" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="59" priority="63" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28:N31 J28:K31">
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E25">
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:N27 J24:K27">
+    <cfRule type="containsText" dxfId="42" priority="40" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E27">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E21">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:N23 J20:K23">
+    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E23">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E17">
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:N19 J16:K19">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E13">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:N15 J12:K15">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="58" priority="54" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="containsText" dxfId="55" priority="51" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="52" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:N31 J28:K31">
-    <cfRule type="containsText" dxfId="52" priority="47" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="48" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="containsText" dxfId="48" priority="44" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="45" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="46" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="containsText" dxfId="45" priority="41" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="42" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:N27 J24:K27">
-    <cfRule type="containsText" dxfId="42" priority="37" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="38" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsText" dxfId="38" priority="34" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20:N23 J20:K23">
-    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="28" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="29" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
-    <cfRule type="containsText" dxfId="28" priority="24" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E17">
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16:N19 J16:K19">
-    <cfRule type="containsText" dxfId="22" priority="17" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12:N15 J12:K15">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3825,8 +3728,14 @@
     <hyperlink ref="R9" r:id="rId35"/>
     <hyperlink ref="O10" r:id="rId36"/>
     <hyperlink ref="P10" r:id="rId37"/>
+    <hyperlink ref="Q10" r:id="rId38"/>
+    <hyperlink ref="R10" r:id="rId39"/>
+    <hyperlink ref="I11" r:id="rId40"/>
+    <hyperlink ref="L11" r:id="rId41"/>
+    <hyperlink ref="O11" r:id="rId42"/>
+    <hyperlink ref="P11" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId38"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId44"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="59">
   <si>
     <t>Sr No.</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Frequency Counting, Floyd's Tortoise and Hare (Cycle Detection)</t>
+  </si>
+  <si>
+    <t>Find All Duplicates in Array</t>
+  </si>
+  <si>
+    <t>Two Pointers, Frequency Counting</t>
+  </si>
+  <si>
+    <t>Commonly Asked</t>
   </si>
 </sst>
 </file>
@@ -624,6 +633,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,15 +670,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,6 +744,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1037,27 +1067,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1660,8 +1669,8 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,93 +1699,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="29"/>
+      <c r="R1" s="32"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="23" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="28"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2255,51 +2264,63 @@
       <c r="P11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="17" t="s">
+      <c r="Q11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="18" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="Q12" s="17" t="s">
@@ -2750,594 +2771,56 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
-        <v>20</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>21</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>22</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
-        <v>23</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>24</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
-        <v>25</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
-        <v>26</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
-        <v>27</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O30" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
-        <v>28</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="12">
-        <v>29</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
-        <v>30</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
-        <v>31</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
-        <v>32</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:T3"/>
   <mergeCells count="15">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="I1:N1"/>
@@ -3348,346 +2831,265 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="H1:H3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="97" priority="98" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="99" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="96" priority="102" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="95" priority="103" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="101" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="94" priority="104" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="93" priority="94" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="93" priority="97" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="95" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="92" priority="98" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="96" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="91" priority="99" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="97" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="90" priority="100" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="89" priority="90" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="89" priority="93" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="88" priority="94" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="92" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="87" priority="95" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="93" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="86" priority="96" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T7">
-    <cfRule type="containsText" dxfId="85" priority="86" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="84" priority="90" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="88" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="83" priority="91" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="82" priority="92" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",T4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 E6:E7 E32:E33">
-    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E4 E6:E7">
+    <cfRule type="containsText" dxfId="81" priority="86" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="80" priority="87" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="79" priority="88" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T11">
-    <cfRule type="containsText" dxfId="78" priority="80" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="81" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="77" priority="84" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="82" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="76" priority="85" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",T9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M32:N35 J32:K35">
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="78" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="79" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E35">
-    <cfRule type="containsText" dxfId="71" priority="70" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E34)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:N11 J8:K11">
-    <cfRule type="containsText" dxfId="62" priority="60" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="61" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="63" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="59" priority="66" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:N31 J28:K31">
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:N27 J24:K27">
-    <cfRule type="containsText" dxfId="42" priority="40" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:N23 J20:K23">
-    <cfRule type="containsText" dxfId="32" priority="30" operator="containsText" text="Done">
+  <conditionalFormatting sqref="M20:N22 J20:K22">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E22">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:N19 J16:K19">
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
     <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hard",E13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Easy",E13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:N15 J12:K15">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3734,8 +3136,14 @@
     <hyperlink ref="L11" r:id="rId41"/>
     <hyperlink ref="O11" r:id="rId42"/>
     <hyperlink ref="P11" r:id="rId43"/>
+    <hyperlink ref="Q11" r:id="rId44"/>
+    <hyperlink ref="R11" r:id="rId45"/>
+    <hyperlink ref="I12" r:id="rId46"/>
+    <hyperlink ref="L12" r:id="rId47"/>
+    <hyperlink ref="O12" r:id="rId48"/>
+    <hyperlink ref="P12" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId44"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId50"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="62">
   <si>
     <t>Sr No.</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>Commonly Asked</t>
+  </si>
+  <si>
+    <t>Unique no of Occurrences</t>
+  </si>
+  <si>
+    <t>Frequency Count</t>
+  </si>
+  <si>
+    <t>Hash Map, Frequency Count</t>
   </si>
 </sst>
 </file>
@@ -677,7 +686,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="74">
     <dxf>
       <fill>
         <patternFill>
@@ -765,6 +774,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -954,6 +984,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -975,34 +1033,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1018,195 +1048,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1669,8 +1510,8 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2323,48 +2164,60 @@
       <c r="P12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="B13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="I13" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="18" t="s">
         <v>20</v>
       </c>
       <c r="Q13" s="17" t="s">
@@ -2838,258 +2691,258 @@
     <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="97" priority="101" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="73" priority="104" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="102" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="72" priority="105" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="103" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="71" priority="106" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="104" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="70" priority="107" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="93" priority="97" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="69" priority="100" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="98" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="68" priority="101" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="99" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="67" priority="102" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="100" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="66" priority="103" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="89" priority="93" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="65" priority="96" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="94" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="64" priority="97" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="95" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="63" priority="98" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="96" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="62" priority="99" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T7">
-    <cfRule type="containsText" dxfId="85" priority="89" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="61" priority="92" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="90" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="60" priority="93" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="91" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="59" priority="94" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="92" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="58" priority="95" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",T4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 E6:E7">
-    <cfRule type="containsText" dxfId="81" priority="86" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="57" priority="89" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="87" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="56" priority="90" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="88" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="55" priority="91" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T11">
-    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="54" priority="86" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="84" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="53" priority="87" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="85" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="52" priority="88" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="51" priority="73" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="50" priority="74" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="49" priority="75" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="65" priority="67" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="48" priority="70" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="68" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="47" priority="71" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="46" priority="72" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:N11 J8:K11">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="45" priority="66" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="44" priority="67" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="43" priority="68" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="66" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="42" priority="69" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:N22 J20:K22">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:N19 J16:K19">
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:N15 J12:K15">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12:N15 J12:K15">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3142,8 +2995,13 @@
     <hyperlink ref="L12" r:id="rId47"/>
     <hyperlink ref="O12" r:id="rId48"/>
     <hyperlink ref="P12" r:id="rId49"/>
+    <hyperlink ref="Q12" r:id="rId50"/>
+    <hyperlink ref="R12" r:id="rId51"/>
+    <hyperlink ref="L13" r:id="rId52"/>
+    <hyperlink ref="O13" r:id="rId53"/>
+    <hyperlink ref="P13" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId50"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId55"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="66">
   <si>
     <t>Sr No.</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>Hash Map, Frequency Count</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>Hashing, Two Pointers</t>
+  </si>
+  <si>
+    <t>Set Operations</t>
+  </si>
+  <si>
+    <t>Sorting, HashSet</t>
   </si>
 </sst>
 </file>
@@ -574,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -642,6 +654,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,36 +694,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,7 +701,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="71">
     <dxf>
       <fill>
         <patternFill>
@@ -817,27 +832,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1510,8 +1504,8 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,93 +1534,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="31" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="32"/>
+      <c r="R1" s="30"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="26" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="28"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2220,48 +2214,60 @@
       <c r="P13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="E14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="16" t="s">
+      <c r="F14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="18" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="18" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="17" t="s">
@@ -2633,25 +2639,25 @@
       <c r="A25" s="5"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="23"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="23"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="23"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="23"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="23"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
@@ -2674,6 +2680,11 @@
   </sheetData>
   <autoFilter ref="A3:T3"/>
   <mergeCells count="15">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="I1:N1"/>
@@ -2684,195 +2695,190 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="73" priority="104" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="70" priority="104" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="105" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="69" priority="105" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="106" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="68" priority="106" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="107" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="67" priority="107" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="69" priority="100" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="66" priority="100" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="101" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="65" priority="101" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="102" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="64" priority="102" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="103" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="63" priority="103" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="65" priority="96" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="62" priority="96" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="97" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="61" priority="97" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="98" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="60" priority="98" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="99" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="59" priority="99" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T7">
-    <cfRule type="containsText" dxfId="61" priority="92" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="58" priority="92" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="93" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="57" priority="93" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="94" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="56" priority="94" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",T4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="95" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="55" priority="95" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",T4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 E6:E7">
-    <cfRule type="containsText" dxfId="57" priority="89" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="54" priority="89" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="90" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="53" priority="90" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="91" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="52" priority="91" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9:T11">
-    <cfRule type="containsText" dxfId="54" priority="86" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="51" priority="86" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="87" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="50" priority="87" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",T9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="88" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="49" priority="88" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",T9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="51" priority="73" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="48" priority="73" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="74" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="47" priority="74" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="75" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="46" priority="75" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="48" priority="70" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="45" priority="70" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="71" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="44" priority="71" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="72" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="43" priority="72" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:N11 J8:K11">
-    <cfRule type="containsText" dxfId="45" priority="66" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="42" priority="66" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="67" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="41" priority="67" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="68" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="40" priority="68" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="69" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:N22 J20:K22">
-    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="26" priority="32" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:N19 J16:K19">
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2934,7 +2940,7 @@
       <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E13:E14">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E13)))</formula>
     </cfRule>
@@ -3000,8 +3006,14 @@
     <hyperlink ref="L13" r:id="rId52"/>
     <hyperlink ref="O13" r:id="rId53"/>
     <hyperlink ref="P13" r:id="rId54"/>
+    <hyperlink ref="Q13" r:id="rId55"/>
+    <hyperlink ref="R13" r:id="rId56"/>
+    <hyperlink ref="L14" r:id="rId57"/>
+    <hyperlink ref="O14" r:id="rId58"/>
+    <hyperlink ref="P14" r:id="rId59"/>
+    <hyperlink ref="I14" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId55"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId61"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$R$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$U$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="71">
   <si>
     <t>Sr No.</t>
   </si>
@@ -220,6 +220,21 @@
   </si>
   <si>
     <t>Sorting, HashSet</t>
+  </si>
+  <si>
+    <t>GeeksForGeeks</t>
+  </si>
+  <si>
+    <t>Second Largest</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>Sorting/Ranking</t>
+  </si>
+  <si>
+    <t>Comparisons, Max/Min</t>
   </si>
 </sst>
 </file>
@@ -302,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -322,21 +337,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,20 +581,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -603,46 +621,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,49 +672,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -701,7 +725,133 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="89">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1501,146 +1651,166 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="5"/>
+    <col min="15" max="15" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5546875" style="5" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="6.6640625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="5"/>
+    <col min="23" max="23" width="10" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="29" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24" t="s">
+      <c r="U1" s="32"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="34"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -1683,23 +1853,32 @@
       <c r="N4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>20</v>
+      <c r="O4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="S4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1742,23 +1921,32 @@
       <c r="N5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>20</v>
+      <c r="O5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="S5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -1801,23 +1989,32 @@
       <c r="N6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>20</v>
+      <c r="O6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="S6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -1860,23 +2057,32 @@
       <c r="N7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>20</v>
+      <c r="O7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -1919,20 +2125,29 @@
       <c r="N8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="18" t="s">
-        <v>20</v>
+      <c r="O8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R8" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -1975,23 +2190,32 @@
       <c r="N9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="18" t="s">
-        <v>20</v>
+      <c r="O9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="S9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2034,23 +2258,32 @@
       <c r="N10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>20</v>
+      <c r="O10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="S10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2093,23 +2326,32 @@
       <c r="N11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="18" t="s">
-        <v>20</v>
+      <c r="O11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="S11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -2152,20 +2394,29 @@
       <c r="N12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>20</v>
+      <c r="O12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R12" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -2208,20 +2459,29 @@
       <c r="N13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>20</v>
+      <c r="O13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R13" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="S13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -2250,10 +2510,10 @@
         <v>20</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>20</v>
@@ -2264,33 +2524,54 @@
       <c r="N14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="E15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="22" t="s">
@@ -2300,28 +2581,37 @@
         <v>21</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -2352,20 +2642,29 @@
       <c r="N16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>20</v>
+      <c r="O16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R16" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -2396,20 +2695,29 @@
       <c r="N17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>20</v>
+      <c r="O17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="R17" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -2440,20 +2748,29 @@
       <c r="N18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="17" t="s">
-        <v>20</v>
+      <c r="O18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="R18" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -2484,20 +2801,29 @@
       <c r="N19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>20</v>
+      <c r="O19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="R19" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -2528,20 +2854,29 @@
       <c r="N20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>20</v>
+      <c r="O20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="R20" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -2572,20 +2907,29 @@
       <c r="N21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>20</v>
+      <c r="O21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="R21" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -2616,404 +2960,479 @@
       <c r="N22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>20</v>
+      <c r="O22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="R22" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
     </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+    </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-    </row>
   </sheetData>
   <autoFilter ref="A3:T3"/>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="Q1:R2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="H1:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="70" priority="104" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="88" priority="160" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="105" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="87" priority="161" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="106" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="86" priority="162" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="107" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="85" priority="163" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="66" priority="100" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="84" priority="156" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="101" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="83" priority="157" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="102" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="82" priority="158" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="103" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="81" priority="159" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="62" priority="96" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="80" priority="152" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="97" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="79" priority="153" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="98" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="78" priority="154" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="99" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="77" priority="155" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T7">
-    <cfRule type="containsText" dxfId="58" priority="92" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",T4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="93" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",T4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="94" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",T4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="95" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",T4)))</formula>
+  <conditionalFormatting sqref="W4:W7">
+    <cfRule type="containsText" dxfId="76" priority="148" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",W4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="149" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",W4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="150" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",W4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="151" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",W4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 E6:E7">
-    <cfRule type="containsText" dxfId="54" priority="89" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E6:E7 E4">
+    <cfRule type="containsText" dxfId="72" priority="145" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="90" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="71" priority="146" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="91" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="70" priority="147" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T9:T11">
-    <cfRule type="containsText" dxfId="51" priority="86" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="87" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",T9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="88" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",T9)))</formula>
+  <conditionalFormatting sqref="W9:W11">
+    <cfRule type="containsText" dxfId="69" priority="142" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",W9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="143" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",W9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="144" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",W9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="48" priority="73" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="66" priority="129" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="74" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="65" priority="130" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="75" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="64" priority="131" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="45" priority="70" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="63" priority="126" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="71" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="62" priority="127" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="72" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="61" priority="128" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:N11 J8:K11">
-    <cfRule type="containsText" dxfId="42" priority="66" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="60" priority="122" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="67" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="59" priority="123" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="68" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="58" priority="124" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="57" priority="125" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="56" priority="96" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="55" priority="97" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="54" priority="98" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:N22 J20:K22">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="53" priority="92" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="37" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="52" priority="93" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="38" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="51" priority="94" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="39" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsText" dxfId="31" priority="33" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="49" priority="89" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="34" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="48" priority="90" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="47" priority="91" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E17">
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="46" priority="86" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="32" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="44" priority="88" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:N19 J16:K19">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="43" priority="82" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="42" priority="83" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="41" priority="84" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="40" priority="85" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="39" priority="79" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="38" priority="80" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="37" priority="81" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:N15 J12:K15">
-    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="36" priority="72" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="35" priority="73" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E14">
+    <cfRule type="containsText" dxfId="32" priority="69" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="31" priority="70" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="30" priority="71" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="29" priority="66" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="28" priority="67" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="27" priority="68" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="26" priority="63" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="25" priority="64" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="23" priority="60" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="21" priority="62" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
+    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="58" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="59" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:Q22">
+    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",P20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="46" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",P20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",P20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="48" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",P20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:Q19">
+    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",P16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="42" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",P16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="43" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",P16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="44" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",P16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:Q15">
+    <cfRule type="containsText" dxfId="9" priority="33" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",P4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="34" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",P4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",P4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",P4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hard",E15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Easy",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="L5" r:id="rId1"/>
     <hyperlink ref="I5" r:id="rId2"/>
     <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="O4" r:id="rId4"/>
-    <hyperlink ref="P4" r:id="rId5"/>
-    <hyperlink ref="O5" r:id="rId6"/>
-    <hyperlink ref="P5" r:id="rId7"/>
-    <hyperlink ref="Q4" r:id="rId8"/>
-    <hyperlink ref="R4" r:id="rId9"/>
-    <hyperlink ref="Q5" r:id="rId10"/>
-    <hyperlink ref="R5" r:id="rId11"/>
+    <hyperlink ref="R4" r:id="rId4"/>
+    <hyperlink ref="S4" r:id="rId5"/>
+    <hyperlink ref="R5" r:id="rId6"/>
+    <hyperlink ref="S5" r:id="rId7"/>
+    <hyperlink ref="T4" r:id="rId8"/>
+    <hyperlink ref="U4" r:id="rId9"/>
+    <hyperlink ref="T5" r:id="rId10"/>
+    <hyperlink ref="U5" r:id="rId11"/>
     <hyperlink ref="I6" r:id="rId12"/>
     <hyperlink ref="L6" r:id="rId13"/>
-    <hyperlink ref="O6" r:id="rId14"/>
-    <hyperlink ref="P6" r:id="rId15"/>
-    <hyperlink ref="Q6" r:id="rId16"/>
-    <hyperlink ref="R6" r:id="rId17"/>
+    <hyperlink ref="R6" r:id="rId14"/>
+    <hyperlink ref="S6" r:id="rId15"/>
+    <hyperlink ref="T6" r:id="rId16"/>
+    <hyperlink ref="U6" r:id="rId17"/>
     <hyperlink ref="I7" r:id="rId18"/>
     <hyperlink ref="L7" r:id="rId19"/>
-    <hyperlink ref="O7" r:id="rId20"/>
-    <hyperlink ref="P7" r:id="rId21"/>
-    <hyperlink ref="Q7" r:id="rId22"/>
-    <hyperlink ref="R7" r:id="rId23"/>
+    <hyperlink ref="R7" r:id="rId20"/>
+    <hyperlink ref="S7" r:id="rId21"/>
+    <hyperlink ref="T7" r:id="rId22"/>
+    <hyperlink ref="U7" r:id="rId23"/>
     <hyperlink ref="I8" r:id="rId24"/>
     <hyperlink ref="L8" r:id="rId25"/>
-    <hyperlink ref="O8" r:id="rId26"/>
-    <hyperlink ref="P8" r:id="rId27"/>
-    <hyperlink ref="Q8" r:id="rId28"/>
-    <hyperlink ref="R8" r:id="rId29"/>
+    <hyperlink ref="R8" r:id="rId26"/>
+    <hyperlink ref="S8" r:id="rId27"/>
+    <hyperlink ref="T8" r:id="rId28"/>
+    <hyperlink ref="U8" r:id="rId29"/>
     <hyperlink ref="I9" r:id="rId30"/>
-    <hyperlink ref="O9" r:id="rId31"/>
-    <hyperlink ref="P9" r:id="rId32"/>
+    <hyperlink ref="R9" r:id="rId31"/>
+    <hyperlink ref="S9" r:id="rId32"/>
     <hyperlink ref="I10" r:id="rId33"/>
-    <hyperlink ref="Q9" r:id="rId34"/>
-    <hyperlink ref="R9" r:id="rId35"/>
-    <hyperlink ref="O10" r:id="rId36"/>
-    <hyperlink ref="P10" r:id="rId37"/>
-    <hyperlink ref="Q10" r:id="rId38"/>
-    <hyperlink ref="R10" r:id="rId39"/>
+    <hyperlink ref="T9" r:id="rId34"/>
+    <hyperlink ref="U9" r:id="rId35"/>
+    <hyperlink ref="R10" r:id="rId36"/>
+    <hyperlink ref="S10" r:id="rId37"/>
+    <hyperlink ref="T10" r:id="rId38"/>
+    <hyperlink ref="U10" r:id="rId39"/>
     <hyperlink ref="I11" r:id="rId40"/>
     <hyperlink ref="L11" r:id="rId41"/>
-    <hyperlink ref="O11" r:id="rId42"/>
-    <hyperlink ref="P11" r:id="rId43"/>
-    <hyperlink ref="Q11" r:id="rId44"/>
-    <hyperlink ref="R11" r:id="rId45"/>
+    <hyperlink ref="R11" r:id="rId42"/>
+    <hyperlink ref="S11" r:id="rId43"/>
+    <hyperlink ref="T11" r:id="rId44"/>
+    <hyperlink ref="U11" r:id="rId45"/>
     <hyperlink ref="I12" r:id="rId46"/>
     <hyperlink ref="L12" r:id="rId47"/>
-    <hyperlink ref="O12" r:id="rId48"/>
-    <hyperlink ref="P12" r:id="rId49"/>
-    <hyperlink ref="Q12" r:id="rId50"/>
-    <hyperlink ref="R12" r:id="rId51"/>
+    <hyperlink ref="R12" r:id="rId48"/>
+    <hyperlink ref="S12" r:id="rId49"/>
+    <hyperlink ref="T12" r:id="rId50"/>
+    <hyperlink ref="U12" r:id="rId51"/>
     <hyperlink ref="L13" r:id="rId52"/>
-    <hyperlink ref="O13" r:id="rId53"/>
-    <hyperlink ref="P13" r:id="rId54"/>
-    <hyperlink ref="Q13" r:id="rId55"/>
-    <hyperlink ref="R13" r:id="rId56"/>
+    <hyperlink ref="R13" r:id="rId53"/>
+    <hyperlink ref="S13" r:id="rId54"/>
+    <hyperlink ref="T13" r:id="rId55"/>
+    <hyperlink ref="U13" r:id="rId56"/>
     <hyperlink ref="L14" r:id="rId57"/>
-    <hyperlink ref="O14" r:id="rId58"/>
-    <hyperlink ref="P14" r:id="rId59"/>
+    <hyperlink ref="R14" r:id="rId58"/>
+    <hyperlink ref="S14" r:id="rId59"/>
     <hyperlink ref="I14" r:id="rId60"/>
+    <hyperlink ref="T14" r:id="rId61"/>
+    <hyperlink ref="U14" r:id="rId62"/>
+    <hyperlink ref="R15" r:id="rId63"/>
+    <hyperlink ref="S15" r:id="rId64"/>
+    <hyperlink ref="I15" r:id="rId65"/>
+    <hyperlink ref="O15" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId61"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId67"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="75">
   <si>
     <t>Sr No.</t>
   </si>
@@ -235,13 +235,25 @@
   </si>
   <si>
     <t>Comparisons, Max/Min</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>In-place Operations</t>
+  </si>
+  <si>
+    <t>Optimization, Shifting Elements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +291,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -356,36 +376,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -419,36 +409,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,20 +559,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -621,103 +625,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,7 +732,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="128">
     <dxf>
       <fill>
         <patternFill>
@@ -771,6 +778,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -799,6 +827,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -827,6 +897,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -897,6 +988,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -918,6 +1037,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -988,6 +1135,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1009,6 +1184,90 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1058,6 +1317,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1079,28 +1366,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1651,35 +1931,32 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="5" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5546875" style="5" customWidth="1"/>
+    <col min="16" max="17" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="4.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.6640625" style="5" customWidth="1"/>
     <col min="22" max="22" width="8.88671875" style="5"/>
     <col min="23" max="23" width="10" style="5" customWidth="1"/>
@@ -1687,110 +1964,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="31" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="32"/>
-      <c r="T1" s="31" t="s">
+      <c r="S1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="32"/>
+      <c r="U1" s="36"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="27" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="M2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="35" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="34"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="38"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="29"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="29"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +2112,7 @@
       <c r="H4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="20" t="s">
@@ -1844,7 +2121,7 @@
       <c r="K4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="20" t="s">
@@ -1878,7 +2155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -1946,7 +2223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2172,23 +2449,23 @@
       <c r="H9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>20</v>
+      <c r="I9" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="16" t="s">
         <v>45</v>
       </c>
+      <c r="L9" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="M9" s="21" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>20</v>
@@ -2215,7 +2492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -2240,23 +2517,23 @@
       <c r="H10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>20</v>
+      <c r="I10" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="16" t="s">
         <v>45</v>
       </c>
+      <c r="L10" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="M10" s="22" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O10" s="13" t="s">
         <v>20</v>
@@ -2283,7 +2560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -2441,23 +2718,23 @@
       <c r="H13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="M13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="N13" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>21</v>
       </c>
       <c r="O13" s="13" t="s">
         <v>20</v>
@@ -2481,7 +2758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -2571,23 +2848,23 @@
       <c r="H15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>20</v>
+      <c r="I15" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="16" t="s">
         <v>45</v>
       </c>
+      <c r="L15" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="M15" s="22" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O15" s="18" t="s">
         <v>20</v>
@@ -2604,57 +2881,69 @@
       <c r="S15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U15" s="17" t="s">
+      <c r="T15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="E16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="18" t="s">
         <v>20</v>
       </c>
       <c r="T16" s="17" t="s">
@@ -2831,7 +3120,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -2884,7 +3173,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -2937,7 +3226,7 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -2983,391 +3272,1013 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="12">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>21</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="12">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="12">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="12">
+        <v>24</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
+        <v>25</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U28" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="12">
+        <v>26</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="12">
+        <v>27</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U30" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="12">
+        <v>28</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U31" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="23"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
     </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:T3"/>
   <mergeCells count="17">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J4:J7">
-    <cfRule type="containsText" dxfId="88" priority="160" operator="containsText" text="Done">
+  <conditionalFormatting sqref="M4:M7 P27:Q27 M27:N27 J27:K27 J24:K25 M24:N25 P24:Q25">
+    <cfRule type="containsText" dxfId="127" priority="207" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="161" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="126" priority="208" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="162" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="125" priority="209" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="163" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="124" priority="210" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K7">
-    <cfRule type="containsText" dxfId="84" priority="156" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",K4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="157" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",K4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="158" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",K4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="159" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",K4)))</formula>
+  <conditionalFormatting sqref="N4:N7">
+    <cfRule type="containsText" dxfId="123" priority="203" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",N4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="204" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",N4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="205" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",N4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="206" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",N4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:N7">
-    <cfRule type="containsText" dxfId="80" priority="152" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="153" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="154" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",M4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="155" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",M4)))</formula>
+  <conditionalFormatting sqref="J4:K7">
+    <cfRule type="containsText" dxfId="119" priority="199" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="200" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="201" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="202" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W7">
-    <cfRule type="containsText" dxfId="76" priority="148" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="115" priority="195" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",W4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="149" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="114" priority="196" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",W4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="150" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="113" priority="197" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",W4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="151" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="112" priority="198" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",W4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7 E4">
-    <cfRule type="containsText" dxfId="72" priority="145" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="111" priority="192" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="146" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="110" priority="193" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="147" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="109" priority="194" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W11">
-    <cfRule type="containsText" dxfId="69" priority="142" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="108" priority="189" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",W9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="143" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="107" priority="190" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",W9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="144" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="106" priority="191" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",W9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="66" priority="129" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="105" priority="176" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="130" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="104" priority="177" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="131" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="103" priority="178" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="63" priority="126" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="102" priority="173" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="127" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="101" priority="174" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="128" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="100" priority="175" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:N11 J8:K11">
-    <cfRule type="containsText" dxfId="60" priority="122" operator="containsText" text="Done">
+  <conditionalFormatting sqref="J8:K11 M8:N11">
+    <cfRule type="containsText" dxfId="99" priority="169" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="123" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="98" priority="170" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="124" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="97" priority="171" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="125" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="96" priority="172" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E25">
+    <cfRule type="containsText" dxfId="95" priority="143" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="144" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="145" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="containsText" dxfId="92" priority="136" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="137" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="138" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="containsText" dxfId="89" priority="133" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="134" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="135" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:K19 M16:N19">
+    <cfRule type="containsText" dxfId="86" priority="129" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="130" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="131" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="132" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19">
+    <cfRule type="containsText" dxfId="82" priority="126" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="127" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="128" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12:K15 M12:N15">
+    <cfRule type="containsText" dxfId="79" priority="119" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="120" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="121" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="122" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="containsText" dxfId="75" priority="116" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="117" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="118" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="containsText" dxfId="72" priority="113" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="114" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="115" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="containsText" dxfId="69" priority="110" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="111" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="112" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsText" dxfId="66" priority="107" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="108" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="109" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E14">
+    <cfRule type="containsText" dxfId="63" priority="104" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="105" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="106" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:Q19">
+    <cfRule type="containsText" dxfId="60" priority="88" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",P16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="89" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",P16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="90" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",P16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="91" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",P16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:Q15">
+    <cfRule type="containsText" dxfId="56" priority="80" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",P4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="81" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",P4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="82" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",P4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="83" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",P4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P26:Q26 M26:N26 J26:K26">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23:Q23 M23:N23 J23:K23 J20:K21 M20:N21 P20:Q21">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E21">
-    <cfRule type="containsText" dxfId="56" priority="96" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="97" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="98" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:N22 J20:K22">
-    <cfRule type="containsText" dxfId="53" priority="92" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="93" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="94" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="95" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22:Q22 M22:N22 J22:K22">
+    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsText" dxfId="49" priority="89" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="90" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="91" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E17">
-    <cfRule type="containsText" dxfId="46" priority="86" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="P31:Q31 M31:N31 J31:K31 J28:K29 M28:N29 P28:Q29">
+    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P30:Q30 M30:N30 J30:K30">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",J30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Review">
+      <formula>NOT(ISERROR(SEARCH("Review",J30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Attempted">
+      <formula>NOT(ISERROR(SEARCH("Attempted",J30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",J30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="88" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:N19 J16:K19">
-    <cfRule type="containsText" dxfId="43" priority="82" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="83" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="84" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="85" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="39" priority="79" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="80" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="81" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12:N15 J12:K15">
-    <cfRule type="containsText" dxfId="36" priority="72" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="73" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="32" priority="69" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="70" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="71" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="containsText" dxfId="29" priority="66" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="67" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="68" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="26" priority="63" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="64" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="23" priority="60" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="62" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="58" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="59" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20:Q22">
-    <cfRule type="containsText" dxfId="17" priority="45" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",P20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="46" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",P20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="47" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",P20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="48" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",P20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16:Q19">
-    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",P16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="42" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",P16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="43" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",P16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="44" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",P16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:Q15">
-    <cfRule type="containsText" dxfId="9" priority="33" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",P4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="34" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",P4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",P4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",P4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
+  <conditionalFormatting sqref="E16">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1"/>
-    <hyperlink ref="I5" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId1"/>
+    <hyperlink ref="L5" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
     <hyperlink ref="R4" r:id="rId4"/>
     <hyperlink ref="S4" r:id="rId5"/>
     <hyperlink ref="R5" r:id="rId6"/>
@@ -3376,63 +4287,70 @@
     <hyperlink ref="U4" r:id="rId9"/>
     <hyperlink ref="T5" r:id="rId10"/>
     <hyperlink ref="U5" r:id="rId11"/>
-    <hyperlink ref="I6" r:id="rId12"/>
-    <hyperlink ref="L6" r:id="rId13"/>
+    <hyperlink ref="L6" r:id="rId12"/>
+    <hyperlink ref="I6" r:id="rId13"/>
     <hyperlink ref="R6" r:id="rId14"/>
     <hyperlink ref="S6" r:id="rId15"/>
     <hyperlink ref="T6" r:id="rId16"/>
     <hyperlink ref="U6" r:id="rId17"/>
-    <hyperlink ref="I7" r:id="rId18"/>
-    <hyperlink ref="L7" r:id="rId19"/>
+    <hyperlink ref="L7" r:id="rId18"/>
+    <hyperlink ref="I7" r:id="rId19"/>
     <hyperlink ref="R7" r:id="rId20"/>
     <hyperlink ref="S7" r:id="rId21"/>
     <hyperlink ref="T7" r:id="rId22"/>
     <hyperlink ref="U7" r:id="rId23"/>
-    <hyperlink ref="I8" r:id="rId24"/>
-    <hyperlink ref="L8" r:id="rId25"/>
+    <hyperlink ref="L8" r:id="rId24"/>
+    <hyperlink ref="I8" r:id="rId25"/>
     <hyperlink ref="R8" r:id="rId26"/>
     <hyperlink ref="S8" r:id="rId27"/>
     <hyperlink ref="T8" r:id="rId28"/>
     <hyperlink ref="U8" r:id="rId29"/>
-    <hyperlink ref="I9" r:id="rId30"/>
+    <hyperlink ref="L9" r:id="rId30"/>
     <hyperlink ref="R9" r:id="rId31"/>
     <hyperlink ref="S9" r:id="rId32"/>
-    <hyperlink ref="I10" r:id="rId33"/>
+    <hyperlink ref="L10" r:id="rId33"/>
     <hyperlink ref="T9" r:id="rId34"/>
     <hyperlink ref="U9" r:id="rId35"/>
     <hyperlink ref="R10" r:id="rId36"/>
     <hyperlink ref="S10" r:id="rId37"/>
     <hyperlink ref="T10" r:id="rId38"/>
     <hyperlink ref="U10" r:id="rId39"/>
-    <hyperlink ref="I11" r:id="rId40"/>
-    <hyperlink ref="L11" r:id="rId41"/>
+    <hyperlink ref="L11" r:id="rId40"/>
+    <hyperlink ref="I11" r:id="rId41"/>
     <hyperlink ref="R11" r:id="rId42"/>
     <hyperlink ref="S11" r:id="rId43"/>
     <hyperlink ref="T11" r:id="rId44"/>
     <hyperlink ref="U11" r:id="rId45"/>
-    <hyperlink ref="I12" r:id="rId46"/>
-    <hyperlink ref="L12" r:id="rId47"/>
+    <hyperlink ref="L12" r:id="rId46"/>
+    <hyperlink ref="I12" r:id="rId47"/>
     <hyperlink ref="R12" r:id="rId48"/>
     <hyperlink ref="S12" r:id="rId49"/>
     <hyperlink ref="T12" r:id="rId50"/>
     <hyperlink ref="U12" r:id="rId51"/>
-    <hyperlink ref="L13" r:id="rId52"/>
+    <hyperlink ref="I13" r:id="rId52"/>
     <hyperlink ref="R13" r:id="rId53"/>
     <hyperlink ref="S13" r:id="rId54"/>
     <hyperlink ref="T13" r:id="rId55"/>
     <hyperlink ref="U13" r:id="rId56"/>
-    <hyperlink ref="L14" r:id="rId57"/>
+    <hyperlink ref="I14" r:id="rId57"/>
     <hyperlink ref="R14" r:id="rId58"/>
     <hyperlink ref="S14" r:id="rId59"/>
-    <hyperlink ref="I14" r:id="rId60"/>
+    <hyperlink ref="L14" r:id="rId60"/>
     <hyperlink ref="T14" r:id="rId61"/>
     <hyperlink ref="U14" r:id="rId62"/>
     <hyperlink ref="R15" r:id="rId63"/>
     <hyperlink ref="S15" r:id="rId64"/>
-    <hyperlink ref="I15" r:id="rId65"/>
+    <hyperlink ref="L15" r:id="rId65"/>
     <hyperlink ref="O15" r:id="rId66"/>
+    <hyperlink ref="T15" r:id="rId67"/>
+    <hyperlink ref="U15" r:id="rId68"/>
+    <hyperlink ref="I16" r:id="rId69"/>
+    <hyperlink ref="L16" r:id="rId70"/>
+    <hyperlink ref="O16" r:id="rId71"/>
+    <hyperlink ref="R16" r:id="rId72"/>
+    <hyperlink ref="S16" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId67"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId74"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -679,6 +679,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -701,30 +725,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1934,8 +1934,8 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T16" sqref="T16"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,110 +1964,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="35" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="35" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="36"/>
+      <c r="U1" s="26"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="24" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="24" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="26"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="26"/>
+      <c r="O3" s="34"/>
       <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2113,13 +2113,13 @@
         <v>38</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>20</v>
@@ -2130,14 +2130,14 @@
       <c r="N4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R4" s="15" t="s">
         <v>20</v>
@@ -2946,10 +2946,10 @@
       <c r="S16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="17" t="s">
+      <c r="T16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3746,20 +3746,20 @@
       <c r="A32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
@@ -3797,6 +3797,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="T1:U2"/>
     <mergeCell ref="A1:A3"/>
@@ -3813,7 +3814,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:Q1"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="M4:M7 P27:Q27 M27:N27 J27:K27 J24:K25 M24:N25 P24:Q25">
     <cfRule type="containsText" dxfId="127" priority="207" operator="containsText" text="Done">
@@ -4349,8 +4349,11 @@
     <hyperlink ref="O16" r:id="rId71"/>
     <hyperlink ref="R16" r:id="rId72"/>
     <hyperlink ref="S16" r:id="rId73"/>
+    <hyperlink ref="T16" r:id="rId74"/>
+    <hyperlink ref="U16" r:id="rId75"/>
+    <hyperlink ref="O4" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId74"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId77"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="77">
   <si>
     <t>Sr No.</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>Optimization, Shifting Elements</t>
+  </si>
+  <si>
+    <t>Sort 0s, 1s and 2s</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
   </si>
 </sst>
 </file>
@@ -682,6 +688,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,12 +722,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1934,8 +1940,8 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S4" sqref="S4"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,28 +1970,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="34" t="s">
         <v>36</v>
       </c>
       <c r="I1" s="37" t="s">
@@ -1999,75 +2005,75 @@
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
       <c r="Q1" s="39"/>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="25" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="26"/>
+      <c r="U1" s="28"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="32" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="32" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="36"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="34"/>
+      <c r="O3" s="36"/>
       <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2957,46 +2963,50 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="18" t="s">
         <v>20</v>
       </c>
       <c r="T17" s="17" t="s">
@@ -3010,8 +3020,12 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="13" t="s">
         <v>17</v>
@@ -3023,21 +3037,21 @@
         <v>20</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P18" s="22" t="s">
@@ -3797,6 +3811,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="T1:U2"/>
@@ -3813,7 +3828,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="M4:M7 P27:Q27 M27:N27 J27:K27 J24:K25 M24:N25 P24:Q25">
     <cfRule type="containsText" dxfId="127" priority="207" operator="containsText" text="Done">
@@ -4352,8 +4366,12 @@
     <hyperlink ref="T16" r:id="rId74"/>
     <hyperlink ref="U16" r:id="rId75"/>
     <hyperlink ref="O4" r:id="rId76"/>
+    <hyperlink ref="O17" r:id="rId77"/>
+    <hyperlink ref="O18" r:id="rId78"/>
+    <hyperlink ref="R17" r:id="rId79"/>
+    <hyperlink ref="S17" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId77"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId81"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Muzammil\Coding\04-DSA\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717EF863-8903-4ADE-86C0-CC244AF92526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="83">
   <si>
     <t>Sr No.</t>
   </si>
@@ -253,12 +254,30 @@
   </si>
   <si>
     <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>Cyclic Replacements</t>
+  </si>
+  <si>
+    <t>Rotation, Optimization</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Lexicographical Order</t>
+  </si>
+  <si>
+    <t>Permutations, Optimization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -688,12 +707,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,33 +756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -738,357 +763,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -1268,370 +943,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1932,7 +1243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1940,8 +1251,8 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S17" sqref="S17"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1970,110 +1281,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="27" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="28"/>
-      <c r="T1" s="27" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="28"/>
+      <c r="U1" s="39"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="34" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="30"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="36"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="36"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2703,13 +2014,13 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -2768,13 +2079,13 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -2833,13 +2144,13 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -2898,13 +2209,13 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="25" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -2959,40 +2270,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="16" t="s">
-        <v>45</v>
+      <c r="F17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O17" s="18" t="s">
         <v>20</v>
@@ -3009,61 +2328,69 @@
       <c r="S17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="E18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="T18" s="17" t="s">
@@ -3077,9 +2404,9 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="13" t="s">
         <v>23</v>
       </c>
@@ -3130,9 +2457,9 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="13" t="s">
         <v>17</v>
       </c>
@@ -3183,9 +2510,13 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="25"/>
       <c r="E21" s="14" t="s">
         <v>23</v>
       </c>
@@ -3210,7 +2541,7 @@
       <c r="N21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O21" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P21" s="21" t="s">
@@ -3236,9 +2567,9 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="13" t="s">
         <v>25</v>
       </c>
@@ -3289,9 +2620,9 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -3340,9 +2671,9 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="13" t="s">
         <v>17</v>
       </c>
@@ -3393,9 +2724,9 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="14" t="s">
         <v>23</v>
       </c>
@@ -3446,9 +2777,9 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="13" t="s">
         <v>25</v>
       </c>
@@ -3499,9 +2830,9 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -3550,9 +2881,9 @@
       <c r="A28" s="12">
         <v>25</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="13" t="s">
         <v>17</v>
       </c>
@@ -3603,9 +2934,9 @@
       <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="14" t="s">
         <v>23</v>
       </c>
@@ -3656,9 +2987,9 @@
       <c r="A30" s="12">
         <v>27</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="13" t="s">
         <v>25</v>
       </c>
@@ -3709,9 +3040,9 @@
       <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="13"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -3760,27 +3091,30 @@
       <c r="A32" s="23"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="G34" s="23"/>
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -3811,8 +3145,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="T1:U2"/>
     <mergeCell ref="A1:A3"/>
@@ -3828,550 +3160,195 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="M4:M7 P27:Q27 M27:N27 J27:K27 J24:K25 M24:N25 P24:Q25">
-    <cfRule type="containsText" dxfId="127" priority="207" operator="containsText" text="Done">
+  <conditionalFormatting sqref="E4:E15">
+    <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="62" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="containsText" dxfId="22" priority="126" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="127" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="128" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E31">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E18">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:K31 M4:N31 P4:Q31">
+    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="208" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="209" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="210" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N7">
-    <cfRule type="containsText" dxfId="123" priority="203" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",N4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="204" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",N4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="205" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",N4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="206" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",N4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:K7">
-    <cfRule type="containsText" dxfId="119" priority="199" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="200" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="201" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="202" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W7">
-    <cfRule type="containsText" dxfId="115" priority="195" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="6" priority="205" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",W4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="196" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="5" priority="206" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",W4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="197" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="4" priority="207" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",W4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="198" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="3" priority="208" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",W4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E7 E4">
-    <cfRule type="containsText" dxfId="111" priority="192" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="193" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="194" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W9:W11">
-    <cfRule type="containsText" dxfId="108" priority="189" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="2" priority="199" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",W9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="190" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="200" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",W9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="191" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="0" priority="201" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",W9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="105" priority="176" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="177" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="178" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="102" priority="173" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="174" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="175" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K11 M8:N11">
-    <cfRule type="containsText" dxfId="99" priority="169" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="170" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="171" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="172" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
-    <cfRule type="containsText" dxfId="95" priority="143" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="144" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="145" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="containsText" dxfId="92" priority="136" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="137" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="138" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="89" priority="133" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="134" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="135" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:K19 M16:N19">
-    <cfRule type="containsText" dxfId="86" priority="129" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="130" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="131" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="132" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E19">
-    <cfRule type="containsText" dxfId="82" priority="126" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="127" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="128" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:K15 M12:N15">
-    <cfRule type="containsText" dxfId="79" priority="119" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="120" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="121" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="122" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="75" priority="116" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="117" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="118" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="containsText" dxfId="72" priority="113" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="114" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="115" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="69" priority="110" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="111" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="112" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="66" priority="107" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="108" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="109" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E14">
-    <cfRule type="containsText" dxfId="63" priority="104" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="105" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="106" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16:Q19">
-    <cfRule type="containsText" dxfId="60" priority="88" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",P16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="89" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",P16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="90" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",P16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="91" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",P16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:Q15">
-    <cfRule type="containsText" dxfId="56" priority="80" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",P4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="81" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",P4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="82" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",P4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="83" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",P4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26:Q26 M26:N26 J26:K26">
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23:Q23 M23:N23 J23:K23 J20:K21 M20:N21 P20:Q21">
-    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:E21">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P22:Q22 M22:N22 J22:K22">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31:Q31 M31:N31 J31:K31 J28:K29 M28:N29 P28:Q29">
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P30:Q30 M30:N30 J30:K30">
-    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Review">
-      <formula>NOT(ISERROR(SEARCH("Review",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Attempted">
-      <formula>NOT(ISERROR(SEARCH("Attempted",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="To Do">
-      <formula>NOT(ISERROR(SEARCH("To Do",J30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1"/>
-    <hyperlink ref="L5" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-    <hyperlink ref="R4" r:id="rId4"/>
-    <hyperlink ref="S4" r:id="rId5"/>
-    <hyperlink ref="R5" r:id="rId6"/>
-    <hyperlink ref="S5" r:id="rId7"/>
-    <hyperlink ref="T4" r:id="rId8"/>
-    <hyperlink ref="U4" r:id="rId9"/>
-    <hyperlink ref="T5" r:id="rId10"/>
-    <hyperlink ref="U5" r:id="rId11"/>
-    <hyperlink ref="L6" r:id="rId12"/>
-    <hyperlink ref="I6" r:id="rId13"/>
-    <hyperlink ref="R6" r:id="rId14"/>
-    <hyperlink ref="S6" r:id="rId15"/>
-    <hyperlink ref="T6" r:id="rId16"/>
-    <hyperlink ref="U6" r:id="rId17"/>
-    <hyperlink ref="L7" r:id="rId18"/>
-    <hyperlink ref="I7" r:id="rId19"/>
-    <hyperlink ref="R7" r:id="rId20"/>
-    <hyperlink ref="S7" r:id="rId21"/>
-    <hyperlink ref="T7" r:id="rId22"/>
-    <hyperlink ref="U7" r:id="rId23"/>
-    <hyperlink ref="L8" r:id="rId24"/>
-    <hyperlink ref="I8" r:id="rId25"/>
-    <hyperlink ref="R8" r:id="rId26"/>
-    <hyperlink ref="S8" r:id="rId27"/>
-    <hyperlink ref="T8" r:id="rId28"/>
-    <hyperlink ref="U8" r:id="rId29"/>
-    <hyperlink ref="L9" r:id="rId30"/>
-    <hyperlink ref="R9" r:id="rId31"/>
-    <hyperlink ref="S9" r:id="rId32"/>
-    <hyperlink ref="L10" r:id="rId33"/>
-    <hyperlink ref="T9" r:id="rId34"/>
-    <hyperlink ref="U9" r:id="rId35"/>
-    <hyperlink ref="R10" r:id="rId36"/>
-    <hyperlink ref="S10" r:id="rId37"/>
-    <hyperlink ref="T10" r:id="rId38"/>
-    <hyperlink ref="U10" r:id="rId39"/>
-    <hyperlink ref="L11" r:id="rId40"/>
-    <hyperlink ref="I11" r:id="rId41"/>
-    <hyperlink ref="R11" r:id="rId42"/>
-    <hyperlink ref="S11" r:id="rId43"/>
-    <hyperlink ref="T11" r:id="rId44"/>
-    <hyperlink ref="U11" r:id="rId45"/>
-    <hyperlink ref="L12" r:id="rId46"/>
-    <hyperlink ref="I12" r:id="rId47"/>
-    <hyperlink ref="R12" r:id="rId48"/>
-    <hyperlink ref="S12" r:id="rId49"/>
-    <hyperlink ref="T12" r:id="rId50"/>
-    <hyperlink ref="U12" r:id="rId51"/>
-    <hyperlink ref="I13" r:id="rId52"/>
-    <hyperlink ref="R13" r:id="rId53"/>
-    <hyperlink ref="S13" r:id="rId54"/>
-    <hyperlink ref="T13" r:id="rId55"/>
-    <hyperlink ref="U13" r:id="rId56"/>
-    <hyperlink ref="I14" r:id="rId57"/>
-    <hyperlink ref="R14" r:id="rId58"/>
-    <hyperlink ref="S14" r:id="rId59"/>
-    <hyperlink ref="L14" r:id="rId60"/>
-    <hyperlink ref="T14" r:id="rId61"/>
-    <hyperlink ref="U14" r:id="rId62"/>
-    <hyperlink ref="R15" r:id="rId63"/>
-    <hyperlink ref="S15" r:id="rId64"/>
-    <hyperlink ref="L15" r:id="rId65"/>
-    <hyperlink ref="O15" r:id="rId66"/>
-    <hyperlink ref="T15" r:id="rId67"/>
-    <hyperlink ref="U15" r:id="rId68"/>
-    <hyperlink ref="I16" r:id="rId69"/>
-    <hyperlink ref="L16" r:id="rId70"/>
-    <hyperlink ref="O16" r:id="rId71"/>
-    <hyperlink ref="R16" r:id="rId72"/>
-    <hyperlink ref="S16" r:id="rId73"/>
-    <hyperlink ref="T16" r:id="rId74"/>
-    <hyperlink ref="U16" r:id="rId75"/>
-    <hyperlink ref="O4" r:id="rId76"/>
-    <hyperlink ref="O17" r:id="rId77"/>
-    <hyperlink ref="O18" r:id="rId78"/>
-    <hyperlink ref="R17" r:id="rId79"/>
-    <hyperlink ref="S17" r:id="rId80"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="R4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="S4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="R5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="S5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="T4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="U4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="T5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="U5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="R6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="S6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="T6" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="U6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I7" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="R7" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="S7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="T7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="U7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L8" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="R8" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="S8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="T8" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="U8" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L9" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="R9" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="S9" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L10" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="T9" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="U9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="R10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="S10" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="T10" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="U10" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L11" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I11" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="R11" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="S11" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="T11" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="U11" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L12" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I12" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="R12" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="S12" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="T12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="U12" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I13" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="R13" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="S13" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="T13" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="U13" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I14" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="R14" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="S14" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L14" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="T14" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="U14" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="R15" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="S15" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="L15" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="O15" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="T15" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="U15" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I16" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="L16" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="O16" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="R16" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="S16" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="T16" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="U16" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="O4" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="O17" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="R17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="S17" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="I17" r:id="rId80" xr:uid="{944693B7-1ADD-4233-B890-7814DA250BFD}"/>
+    <hyperlink ref="L17" r:id="rId81" xr:uid="{BB577964-30AA-45AF-82E9-1E8A5FE1AC26}"/>
+    <hyperlink ref="T17" r:id="rId82" xr:uid="{DD5356C4-9024-4123-A4E4-E66917CC0B22}"/>
+    <hyperlink ref="U17" r:id="rId83" xr:uid="{AE38063C-2216-4F0B-B0D0-C57199E030C7}"/>
+    <hyperlink ref="I18" r:id="rId84" xr:uid="{453E40D3-EF02-470E-A604-572769389F4F}"/>
+    <hyperlink ref="L18" r:id="rId85" xr:uid="{EF4E1C4D-C5C6-47F3-ACB1-6BF910F6EE1C}"/>
+    <hyperlink ref="O21" r:id="rId86" xr:uid="{291DEAEC-E8CD-4801-9870-77E593A2A5E3}"/>
+    <hyperlink ref="O18" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="R18" r:id="rId88" xr:uid="{E3526CE7-EBB9-419B-BB41-EE5AE3D07D4D}"/>
+    <hyperlink ref="S18" r:id="rId89" xr:uid="{A58B9F68-F125-4255-9B64-8FA43629946A}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId81"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId90"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Muzammil\Coding\04-DSA\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717EF863-8903-4ADE-86C0-CC244AF92526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A62A211-B53A-4B25-8FC0-0BB33C7868F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="86">
   <si>
     <t>Sr No.</t>
   </si>
@@ -272,13 +272,22 @@
   </si>
   <si>
     <t>Permutations, Optimization</t>
+  </si>
+  <si>
+    <t>Majority Element I</t>
+  </si>
+  <si>
+    <t>Majority Element II</t>
+  </si>
+  <si>
+    <t>Majority Element III</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,14 +325,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -633,7 +634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -704,15 +705,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,15 +747,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,18 +754,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1248,11 +1246,11 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,110 +1279,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="38" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="38" t="s">
+      <c r="S1" s="27"/>
+      <c r="T1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="39"/>
+      <c r="U1" s="27"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="27" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="27" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="27" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="41"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="29"/>
+      <c r="L3" s="35"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="29"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2014,13 +2012,13 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -2079,13 +2077,13 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -2144,13 +2142,13 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -2209,13 +2207,13 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -2274,13 +2272,13 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -2339,13 +2337,13 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -2393,10 +2391,10 @@
       <c r="S18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U18" s="17" t="s">
+      <c r="T18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2404,16 +2402,20 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="22" t="s">
@@ -2422,7 +2424,7 @@
       <c r="K19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="18" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="22" t="s">
@@ -2432,18 +2434,18 @@
         <v>21</v>
       </c>
       <c r="O19" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="18" t="s">
         <v>20</v>
       </c>
       <c r="T19" s="17" t="s">
@@ -2453,20 +2455,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="24"/>
       <c r="E20" s="13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="20" t="s">
@@ -2475,7 +2481,7 @@
       <c r="K20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="20" t="s">
@@ -2484,7 +2490,7 @@
       <c r="N20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="16" t="s">
+      <c r="O20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P20" s="20" t="s">
@@ -2506,17 +2512,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="25"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="14" t="s">
         <v>23</v>
       </c>
@@ -2524,31 +2530,31 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="18" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="R21" s="17" t="s">
         <v>20</v>
@@ -2567,9 +2573,9 @@
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="13" t="s">
         <v>25</v>
       </c>
@@ -2594,7 +2600,7 @@
       <c r="N22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P22" s="22" t="s">
@@ -2620,9 +2626,11 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2671,9 +2679,9 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="13" t="s">
         <v>17</v>
       </c>
@@ -2724,9 +2732,9 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="14" t="s">
         <v>23</v>
       </c>
@@ -2777,9 +2785,9 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="13" t="s">
         <v>25</v>
       </c>
@@ -2830,9 +2838,9 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -2881,9 +2889,9 @@
       <c r="A28" s="12">
         <v>25</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="13" t="s">
         <v>17</v>
       </c>
@@ -2934,9 +2942,9 @@
       <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="14" t="s">
         <v>23</v>
       </c>
@@ -2987,9 +2995,9 @@
       <c r="A30" s="12">
         <v>27</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="13" t="s">
         <v>25</v>
       </c>
@@ -3040,9 +3048,9 @@
       <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="13"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -3088,63 +3096,46 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33"/>
+      <c r="A32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
       <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33" s="24"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
       <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="T1:U2"/>
     <mergeCell ref="A1:A3"/>
@@ -3161,7 +3152,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:Q1"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E15">
     <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="Hard">
@@ -3343,12 +3333,22 @@
     <hyperlink ref="U17" r:id="rId83" xr:uid="{AE38063C-2216-4F0B-B0D0-C57199E030C7}"/>
     <hyperlink ref="I18" r:id="rId84" xr:uid="{453E40D3-EF02-470E-A604-572769389F4F}"/>
     <hyperlink ref="L18" r:id="rId85" xr:uid="{EF4E1C4D-C5C6-47F3-ACB1-6BF910F6EE1C}"/>
-    <hyperlink ref="O21" r:id="rId86" xr:uid="{291DEAEC-E8CD-4801-9870-77E593A2A5E3}"/>
-    <hyperlink ref="O18" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="R18" r:id="rId88" xr:uid="{E3526CE7-EBB9-419B-BB41-EE5AE3D07D4D}"/>
-    <hyperlink ref="S18" r:id="rId89" xr:uid="{A58B9F68-F125-4255-9B64-8FA43629946A}"/>
+    <hyperlink ref="O18" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="R18" r:id="rId87" xr:uid="{E3526CE7-EBB9-419B-BB41-EE5AE3D07D4D}"/>
+    <hyperlink ref="S18" r:id="rId88" xr:uid="{A58B9F68-F125-4255-9B64-8FA43629946A}"/>
+    <hyperlink ref="T18" r:id="rId89" xr:uid="{996C26C4-CCDE-425D-AE4A-823DA50F2723}"/>
+    <hyperlink ref="U18" r:id="rId90" xr:uid="{7EF665CE-68B0-4DAC-9AC9-BA5AAA7EABDB}"/>
+    <hyperlink ref="O22" r:id="rId91" xr:uid="{A9F7AE52-C9AB-40B7-B44B-D401EAF33661}"/>
+    <hyperlink ref="I19" r:id="rId92" xr:uid="{50A2EDFA-F26C-4D48-8E0D-A604F654CCC7}"/>
+    <hyperlink ref="L19" r:id="rId93" xr:uid="{DDE77F1F-9D10-4278-9FFA-D9C9695D9702}"/>
+    <hyperlink ref="I20" r:id="rId94" xr:uid="{8E95E5D0-92B8-4935-BC89-68B58373DA14}"/>
+    <hyperlink ref="L20" r:id="rId95" xr:uid="{987E65E8-1789-4162-863B-1EB9AFAB750D}"/>
+    <hyperlink ref="O20" r:id="rId96" xr:uid="{8F3710B7-9D9D-4236-BD1C-ACB7A2D9D9D9}"/>
+    <hyperlink ref="L21" r:id="rId97" xr:uid="{6DB91E7A-FBB2-4989-B501-A4094BD859CD}"/>
+    <hyperlink ref="R19" r:id="rId98" xr:uid="{B7887332-41D6-4F2B-BAF9-6DE60A748904}"/>
+    <hyperlink ref="S19" r:id="rId99" xr:uid="{80EA1692-8195-4EA5-8490-155D96E2F105}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId90"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId100"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Muzammil\Coding\04-DSA\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A62A211-B53A-4B25-8FC0-0BB33C7868F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D3240-604A-4384-AA73-4BE852329E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1632" yWindow="456" windowWidth="21408" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="93">
   <si>
     <t>Sr No.</t>
   </si>
@@ -281,6 +281,27 @@
   </si>
   <si>
     <t>Majority Element III</t>
+  </si>
+  <si>
+    <t>Boyer-Moore Voting</t>
+  </si>
+  <si>
+    <t>Voting Algorithms</t>
+  </si>
+  <si>
+    <t>Majority Count, Optimization</t>
+  </si>
+  <si>
+    <t>Frequency Analysis, Threshold</t>
+  </si>
+  <si>
+    <t>Frequency Analysis</t>
+  </si>
+  <si>
+    <t>Less Common</t>
+  </si>
+  <si>
+    <t>Custom Thresholds, Optimization</t>
   </si>
 </sst>
 </file>
@@ -711,6 +732,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,12 +766,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,7 +782,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -836,27 +857,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1248,9 +1248,9 @@
   </sheetPr>
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
+      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,28 +1279,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="35" t="s">
         <v>36</v>
       </c>
       <c r="I1" s="38" t="s">
@@ -1314,75 +1314,75 @@
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
       <c r="Q1" s="40"/>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="26" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="27"/>
+      <c r="U1" s="29"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="33" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="33" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="33" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="29"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="35"/>
+      <c r="L3" s="37"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="35"/>
+      <c r="O3" s="37"/>
       <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -2408,13 +2408,21 @@
       <c r="C19" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>86</v>
+      </c>
       <c r="E19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="I19" s="18" t="s">
         <v>20</v>
       </c>
@@ -2448,14 +2456,14 @@
       <c r="S19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -2465,44 +2473,52 @@
       <c r="C20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>86</v>
+      </c>
       <c r="E20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="I20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="18" t="s">
         <v>20</v>
       </c>
       <c r="T20" s="17" t="s">
@@ -2522,13 +2538,21 @@
       <c r="C21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="E21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="I21" s="16" t="s">
         <v>45</v>
       </c>
@@ -3135,6 +3159,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="T1:U2"/>
@@ -3151,39 +3176,27 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E15">
-    <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E4:E31">
+    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="62" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="62" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="63" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="20" priority="63" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="22" priority="126" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="19" priority="126" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="127" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="18" priority="127" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="128" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="17" priority="128" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E31">
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E18">
@@ -3347,8 +3360,12 @@
     <hyperlink ref="L21" r:id="rId97" xr:uid="{6DB91E7A-FBB2-4989-B501-A4094BD859CD}"/>
     <hyperlink ref="R19" r:id="rId98" xr:uid="{B7887332-41D6-4F2B-BAF9-6DE60A748904}"/>
     <hyperlink ref="S19" r:id="rId99" xr:uid="{80EA1692-8195-4EA5-8490-155D96E2F105}"/>
+    <hyperlink ref="T19" r:id="rId100" xr:uid="{832AFF0C-2905-4C0A-81A6-54A552F2F36C}"/>
+    <hyperlink ref="U19" r:id="rId101" xr:uid="{16566C21-FF76-470A-8C69-BAB993E52041}"/>
+    <hyperlink ref="R20" r:id="rId102" xr:uid="{59A43B1D-323E-4642-A15A-9D366C46C684}"/>
+    <hyperlink ref="S20" r:id="rId103" xr:uid="{2AE81859-953D-45C0-A7E7-1C310AD700D2}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId100"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId104"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Muzammil\Coding\04-DSA\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D3240-604A-4384-AA73-4BE852329E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0E04CB-9366-41F4-BBBD-81FB5CD85FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1632" yWindow="456" windowWidth="21408" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1248,9 +1248,9 @@
   </sheetPr>
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2521,10 +2521,10 @@
       <c r="S20" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20" s="17" t="s">
+      <c r="T20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2566,10 +2566,10 @@
         <v>20</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" s="16" t="s">
         <v>45</v>
@@ -2580,10 +2580,10 @@
       <c r="Q21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="17" t="s">
+      <c r="R21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="18" t="s">
         <v>20</v>
       </c>
       <c r="T21" s="17" t="s">
@@ -3364,8 +3364,12 @@
     <hyperlink ref="U19" r:id="rId101" xr:uid="{16566C21-FF76-470A-8C69-BAB993E52041}"/>
     <hyperlink ref="R20" r:id="rId102" xr:uid="{59A43B1D-323E-4642-A15A-9D366C46C684}"/>
     <hyperlink ref="S20" r:id="rId103" xr:uid="{2AE81859-953D-45C0-A7E7-1C310AD700D2}"/>
+    <hyperlink ref="T20" r:id="rId104" xr:uid="{AA02B5DD-A447-4718-A0B9-AFFDF87F5029}"/>
+    <hyperlink ref="U20" r:id="rId105" xr:uid="{9D6407D6-0D18-4092-8BE5-908A4A5B66B1}"/>
+    <hyperlink ref="R21" r:id="rId106" xr:uid="{C1FABB9D-AB38-45DF-9EB2-BD29460F07FC}"/>
+    <hyperlink ref="S21" r:id="rId107" xr:uid="{2F09247B-2764-4ACB-BEFD-7A503F06D8BE}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId104"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId108"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Muzammil\Coding\04-DSA\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0E04CB-9366-41F4-BBBD-81FB5CD85FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AD18E0-BE98-48DD-9542-98FFB84C0DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="93">
   <si>
     <t>Sr No.</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Optimization, Shifting Elements</t>
   </si>
   <si>
-    <t>Sort 0s, 1s and 2s</t>
-  </si>
-  <si>
     <t>Rotate Array</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>Custom Thresholds, Optimization</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock I -  Max one Transaction Allowed</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -723,19 +723,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,33 +772,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1246,11 +1243,11 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T21" sqref="T21"/>
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,110 +1276,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="28" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="37"/>
+      <c r="T1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="29"/>
+      <c r="U1" s="37"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="35" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="31"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="37"/>
+      <c r="L3" s="27"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="37"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2012,13 +2009,13 @@
       <c r="A13" s="12">
         <v>10</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -2077,13 +2074,13 @@
       <c r="A14" s="12">
         <v>11</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="13" t="s">
@@ -2142,13 +2139,13 @@
       <c r="A15" s="12">
         <v>12</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="13" t="s">
@@ -2207,13 +2204,13 @@
       <c r="A16" s="12">
         <v>13</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -2272,26 +2269,26 @@
       <c r="A17" s="12">
         <v>14</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>20</v>
@@ -2337,26 +2334,26 @@
       <c r="A18" s="12">
         <v>15</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>20</v>
@@ -2402,26 +2399,26 @@
       <c r="A19" s="12">
         <v>16</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>86</v>
+      <c r="D19" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>20</v>
@@ -2467,26 +2464,26 @@
       <c r="A20" s="12">
         <v>17</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>86</v>
+      <c r="D20" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>58</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>20</v>
@@ -2532,26 +2529,26 @@
       <c r="A21" s="12">
         <v>18</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="B21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="H21" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>45</v>
@@ -2586,57 +2583,61 @@
       <c r="S21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>19</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="24"/>
       <c r="E22" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="O22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="18" t="s">
         <v>20</v>
       </c>
       <c r="T22" s="17" t="s">
@@ -2650,11 +2651,9 @@
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2703,9 +2702,9 @@
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="13" t="s">
         <v>17</v>
       </c>
@@ -2756,9 +2755,9 @@
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="14" t="s">
         <v>23</v>
       </c>
@@ -2809,9 +2808,9 @@
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="13" t="s">
         <v>25</v>
       </c>
@@ -2862,9 +2861,9 @@
       <c r="A27" s="12">
         <v>24</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -2913,9 +2912,9 @@
       <c r="A28" s="12">
         <v>25</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="13" t="s">
         <v>17</v>
       </c>
@@ -2966,9 +2965,9 @@
       <c r="A29" s="12">
         <v>26</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="14" t="s">
         <v>23</v>
       </c>
@@ -3019,9 +3018,9 @@
       <c r="A30" s="12">
         <v>27</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="13" t="s">
         <v>25</v>
       </c>
@@ -3072,9 +3071,9 @@
       <c r="A31" s="12">
         <v>28</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="13"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -3119,48 +3118,848 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
+        <v>29</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>30</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>31</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>32</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
+        <v>33</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>34</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>35</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>36</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12">
+        <v>37</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U40" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>38</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>39</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U42" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>40</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U43" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12">
+        <v>41</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N44" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="R44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>42</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U45" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>43</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q46" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R46" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U46" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>44</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U47" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="T1:U2"/>
     <mergeCell ref="A1:A3"/>
@@ -3176,87 +3975,89 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E31">
-    <cfRule type="containsText" dxfId="22" priority="61" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E4:E47">
+    <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="62" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="70" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="63" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="20" priority="71" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="19" priority="126" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="19" priority="134" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="127" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="18" priority="135" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="128" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="17" priority="136" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E18">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:K31 M4:N31 P4:Q31">
-    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="Done">
+  <conditionalFormatting sqref="J4:K47 M4:N47 P4:Q47">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W7">
-    <cfRule type="containsText" dxfId="6" priority="205" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="6" priority="213" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",W4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="206" operator="containsText" text="Review">
+    <cfRule type="containsText" dxfId="5" priority="214" operator="containsText" text="Review">
       <formula>NOT(ISERROR(SEARCH("Review",W4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="207" operator="containsText" text="Attempted">
+    <cfRule type="containsText" dxfId="4" priority="215" operator="containsText" text="Attempted">
       <formula>NOT(ISERROR(SEARCH("Attempted",W4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="208" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="3" priority="216" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",W4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9:W11">
-    <cfRule type="containsText" dxfId="2" priority="199" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="2" priority="207" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",W9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="200" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="1" priority="208" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",W9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="201" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="0" priority="209" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",W9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3351,25 +4152,31 @@
     <hyperlink ref="S18" r:id="rId88" xr:uid="{A58B9F68-F125-4255-9B64-8FA43629946A}"/>
     <hyperlink ref="T18" r:id="rId89" xr:uid="{996C26C4-CCDE-425D-AE4A-823DA50F2723}"/>
     <hyperlink ref="U18" r:id="rId90" xr:uid="{7EF665CE-68B0-4DAC-9AC9-BA5AAA7EABDB}"/>
-    <hyperlink ref="O22" r:id="rId91" xr:uid="{A9F7AE52-C9AB-40B7-B44B-D401EAF33661}"/>
-    <hyperlink ref="I19" r:id="rId92" xr:uid="{50A2EDFA-F26C-4D48-8E0D-A604F654CCC7}"/>
-    <hyperlink ref="L19" r:id="rId93" xr:uid="{DDE77F1F-9D10-4278-9FFA-D9C9695D9702}"/>
-    <hyperlink ref="I20" r:id="rId94" xr:uid="{8E95E5D0-92B8-4935-BC89-68B58373DA14}"/>
-    <hyperlink ref="L20" r:id="rId95" xr:uid="{987E65E8-1789-4162-863B-1EB9AFAB750D}"/>
-    <hyperlink ref="O20" r:id="rId96" xr:uid="{8F3710B7-9D9D-4236-BD1C-ACB7A2D9D9D9}"/>
-    <hyperlink ref="L21" r:id="rId97" xr:uid="{6DB91E7A-FBB2-4989-B501-A4094BD859CD}"/>
-    <hyperlink ref="R19" r:id="rId98" xr:uid="{B7887332-41D6-4F2B-BAF9-6DE60A748904}"/>
-    <hyperlink ref="S19" r:id="rId99" xr:uid="{80EA1692-8195-4EA5-8490-155D96E2F105}"/>
-    <hyperlink ref="T19" r:id="rId100" xr:uid="{832AFF0C-2905-4C0A-81A6-54A552F2F36C}"/>
-    <hyperlink ref="U19" r:id="rId101" xr:uid="{16566C21-FF76-470A-8C69-BAB993E52041}"/>
-    <hyperlink ref="R20" r:id="rId102" xr:uid="{59A43B1D-323E-4642-A15A-9D366C46C684}"/>
-    <hyperlink ref="S20" r:id="rId103" xr:uid="{2AE81859-953D-45C0-A7E7-1C310AD700D2}"/>
-    <hyperlink ref="T20" r:id="rId104" xr:uid="{AA02B5DD-A447-4718-A0B9-AFFDF87F5029}"/>
-    <hyperlink ref="U20" r:id="rId105" xr:uid="{9D6407D6-0D18-4092-8BE5-908A4A5B66B1}"/>
-    <hyperlink ref="R21" r:id="rId106" xr:uid="{C1FABB9D-AB38-45DF-9EB2-BD29460F07FC}"/>
-    <hyperlink ref="S21" r:id="rId107" xr:uid="{2F09247B-2764-4ACB-BEFD-7A503F06D8BE}"/>
+    <hyperlink ref="I19" r:id="rId91" xr:uid="{50A2EDFA-F26C-4D48-8E0D-A604F654CCC7}"/>
+    <hyperlink ref="L19" r:id="rId92" xr:uid="{DDE77F1F-9D10-4278-9FFA-D9C9695D9702}"/>
+    <hyperlink ref="I20" r:id="rId93" xr:uid="{8E95E5D0-92B8-4935-BC89-68B58373DA14}"/>
+    <hyperlink ref="L20" r:id="rId94" xr:uid="{987E65E8-1789-4162-863B-1EB9AFAB750D}"/>
+    <hyperlink ref="O20" r:id="rId95" xr:uid="{8F3710B7-9D9D-4236-BD1C-ACB7A2D9D9D9}"/>
+    <hyperlink ref="L21" r:id="rId96" xr:uid="{6DB91E7A-FBB2-4989-B501-A4094BD859CD}"/>
+    <hyperlink ref="R19" r:id="rId97" xr:uid="{B7887332-41D6-4F2B-BAF9-6DE60A748904}"/>
+    <hyperlink ref="S19" r:id="rId98" xr:uid="{80EA1692-8195-4EA5-8490-155D96E2F105}"/>
+    <hyperlink ref="T19" r:id="rId99" xr:uid="{832AFF0C-2905-4C0A-81A6-54A552F2F36C}"/>
+    <hyperlink ref="U19" r:id="rId100" xr:uid="{16566C21-FF76-470A-8C69-BAB993E52041}"/>
+    <hyperlink ref="R20" r:id="rId101" xr:uid="{59A43B1D-323E-4642-A15A-9D366C46C684}"/>
+    <hyperlink ref="S20" r:id="rId102" xr:uid="{2AE81859-953D-45C0-A7E7-1C310AD700D2}"/>
+    <hyperlink ref="T20" r:id="rId103" xr:uid="{AA02B5DD-A447-4718-A0B9-AFFDF87F5029}"/>
+    <hyperlink ref="U20" r:id="rId104" xr:uid="{9D6407D6-0D18-4092-8BE5-908A4A5B66B1}"/>
+    <hyperlink ref="R21" r:id="rId105" xr:uid="{C1FABB9D-AB38-45DF-9EB2-BD29460F07FC}"/>
+    <hyperlink ref="S21" r:id="rId106" xr:uid="{2F09247B-2764-4ACB-BEFD-7A503F06D8BE}"/>
+    <hyperlink ref="T21" r:id="rId107" xr:uid="{6175F423-FCEB-45D6-A7A5-765AA65D6B0F}"/>
+    <hyperlink ref="U21" r:id="rId108" xr:uid="{8EBF5379-AA47-418A-A685-7D9501E41ABC}"/>
+    <hyperlink ref="B22" r:id="rId109" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{3981297C-69B8-4F6D-B97B-DA2B315F8298}"/>
+    <hyperlink ref="I22" r:id="rId110" xr:uid="{19354754-5793-45A1-BB19-0616F3B189FB}"/>
+    <hyperlink ref="O22" r:id="rId111" xr:uid="{DF4C506B-0778-4E9F-9805-AC1A5A851200}"/>
+    <hyperlink ref="R22" r:id="rId112" xr:uid="{7AA405A6-169D-4F3A-BF66-6C7F902C9D29}"/>
+    <hyperlink ref="S22" r:id="rId113" xr:uid="{5C3DD2D9-686B-4D86-BC03-B058EB724F99}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId108"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId114"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Muzammil\Coding\04-DSA\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AD18E0-BE98-48DD-9542-98FFB84C0DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0B147-0C5E-4CD1-A3BC-08E4F77D7863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="99">
   <si>
     <t>Sr No.</t>
   </si>
@@ -301,7 +301,25 @@
     <t>Custom Thresholds, Optimization</t>
   </si>
   <si>
-    <t>Best Time to Buy and Sell Stock I -  Max one Transaction Allowed</t>
+    <t>Best Time to Buy and Sell Stock I - Max one Transaction Allowed</t>
+  </si>
+  <si>
+    <t>Kadane’s Algorithm</t>
+  </si>
+  <si>
+    <t>Maximum Profit Problem</t>
+  </si>
+  <si>
+    <t>Greedy, Sliding Window</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II – Multiple Transaction Allowed</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm</t>
+  </si>
+  <si>
+    <t>Greedy, Stock Trading</t>
   </si>
 </sst>
 </file>
@@ -729,6 +747,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,15 +783,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -760,18 +790,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,9 +1263,9 @@
   </sheetPr>
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,110 +1294,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="36" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="36" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="37"/>
+      <c r="U1" s="26"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="25" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="25" t="s">
+      <c r="K2" s="36"/>
+      <c r="L2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="25" t="s">
+      <c r="N2" s="36"/>
+      <c r="O2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="39"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="27"/>
+      <c r="O3" s="34"/>
       <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2600,13 +2618,21 @@
       <c r="C22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>93</v>
+      </c>
       <c r="E22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="I22" s="18" t="s">
         <v>20</v>
       </c>
@@ -2640,25 +2666,39 @@
       <c r="S22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>20</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="16" t="s">
+      <c r="B23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="22" t="s">
@@ -2667,7 +2707,7 @@
       <c r="K23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="18" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="22" t="s">
@@ -2676,7 +2716,7 @@
       <c r="N23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P23" s="22" t="s">
@@ -2685,10 +2725,10 @@
       <c r="Q23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S23" s="17" t="s">
+      <c r="R23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="18" t="s">
         <v>20</v>
       </c>
       <c r="T23" s="17" t="s">
@@ -3960,6 +4000,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="T1:U2"/>
     <mergeCell ref="A1:A3"/>
@@ -3976,7 +4017,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:Q1"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E47">
     <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="Hard">
@@ -4170,13 +4210,19 @@
     <hyperlink ref="S21" r:id="rId106" xr:uid="{2F09247B-2764-4ACB-BEFD-7A503F06D8BE}"/>
     <hyperlink ref="T21" r:id="rId107" xr:uid="{6175F423-FCEB-45D6-A7A5-765AA65D6B0F}"/>
     <hyperlink ref="U21" r:id="rId108" xr:uid="{8EBF5379-AA47-418A-A685-7D9501E41ABC}"/>
-    <hyperlink ref="B22" r:id="rId109" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{3981297C-69B8-4F6D-B97B-DA2B315F8298}"/>
-    <hyperlink ref="I22" r:id="rId110" xr:uid="{19354754-5793-45A1-BB19-0616F3B189FB}"/>
-    <hyperlink ref="O22" r:id="rId111" xr:uid="{DF4C506B-0778-4E9F-9805-AC1A5A851200}"/>
-    <hyperlink ref="R22" r:id="rId112" xr:uid="{7AA405A6-169D-4F3A-BF66-6C7F902C9D29}"/>
-    <hyperlink ref="S22" r:id="rId113" xr:uid="{5C3DD2D9-686B-4D86-BC03-B058EB724F99}"/>
+    <hyperlink ref="I22" r:id="rId109" xr:uid="{19354754-5793-45A1-BB19-0616F3B189FB}"/>
+    <hyperlink ref="O22" r:id="rId110" xr:uid="{DF4C506B-0778-4E9F-9805-AC1A5A851200}"/>
+    <hyperlink ref="R22" r:id="rId111" xr:uid="{7AA405A6-169D-4F3A-BF66-6C7F902C9D29}"/>
+    <hyperlink ref="S22" r:id="rId112" xr:uid="{5C3DD2D9-686B-4D86-BC03-B058EB724F99}"/>
+    <hyperlink ref="T22" r:id="rId113" xr:uid="{2B4F71E6-7EF8-4EFD-B476-81DF28E6B3D0}"/>
+    <hyperlink ref="U22" r:id="rId114" xr:uid="{6856A36B-E306-4F72-A98B-C4D962667BAB}"/>
+    <hyperlink ref="L23" r:id="rId115" xr:uid="{351D3751-C6CB-451D-A01B-FBC9892045C6}"/>
+    <hyperlink ref="O23" r:id="rId116" xr:uid="{ECB05E46-5E71-416B-A33B-C660C4776BBB}"/>
+    <hyperlink ref="I23" r:id="rId117" xr:uid="{6D30BFF8-2566-4A23-A316-F0191A8CDBC1}"/>
+    <hyperlink ref="R23" r:id="rId118" xr:uid="{F44D82E5-B56F-4D5A-8BB8-F8A58AB3FC9B}"/>
+    <hyperlink ref="S23" r:id="rId119" xr:uid="{5E1923B8-141F-4486-8A4D-0057FAE79671}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId114"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId120"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Muzammil\Coding\04-DSA\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E0B147-0C5E-4CD1-A3BC-08E4F77D7863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DCA56B-EC48-4135-9BD5-80E2754EA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="103">
   <si>
     <t>Sr No.</t>
   </si>
@@ -320,6 +320,18 @@
   </si>
   <si>
     <t>Greedy, Stock Trading</t>
+  </si>
+  <si>
+    <t>Minimize the Heights II</t>
+  </si>
+  <si>
+    <t>Sorting, Greedy</t>
+  </si>
+  <si>
+    <t>Min-Max Problem</t>
+  </si>
+  <si>
+    <t>Optimization, Range Adjustment</t>
   </si>
 </sst>
 </file>
@@ -1263,9 +1275,9 @@
   </sheetPr>
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2731,57 +2743,69 @@
       <c r="S23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T23" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>21</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="B24" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="E24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="I24" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="18" t="s">
         <v>20</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="18" t="s">
         <v>20</v>
       </c>
       <c r="T24" s="17" t="s">
@@ -4221,8 +4245,13 @@
     <hyperlink ref="I23" r:id="rId117" xr:uid="{6D30BFF8-2566-4A23-A316-F0191A8CDBC1}"/>
     <hyperlink ref="R23" r:id="rId118" xr:uid="{F44D82E5-B56F-4D5A-8BB8-F8A58AB3FC9B}"/>
     <hyperlink ref="S23" r:id="rId119" xr:uid="{5E1923B8-141F-4486-8A4D-0057FAE79671}"/>
+    <hyperlink ref="T23" r:id="rId120" xr:uid="{7E35E8A2-785F-45D0-91BA-1FB8573C263F}"/>
+    <hyperlink ref="U23" r:id="rId121" xr:uid="{E24B265F-0433-4BBE-8FD0-849562C71D39}"/>
+    <hyperlink ref="O24" r:id="rId122" xr:uid="{02EAB5B4-2537-4941-AA18-A064194FEAED}"/>
+    <hyperlink ref="R24" r:id="rId123" xr:uid="{693A97D6-8E44-430E-8B91-875763F3F6AD}"/>
+    <hyperlink ref="S24" r:id="rId124" xr:uid="{CCB32ED6-B113-4B87-8362-0DCAFF7417E2}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId120"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId125"/>
 </worksheet>
 </file>
--- a/Resources/Index.xlsx
+++ b/Resources/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Muzammil\Coding\04-DSA\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DCA56B-EC48-4135-9BD5-80E2754EA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88452A48-83DF-42C4-82E6-B0C079E290A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="106">
   <si>
     <t>Sr No.</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>Optimization, Range Adjustment</t>
+  </si>
+  <si>
+    <t>Maximum Sum Subarray</t>
+  </si>
+  <si>
+    <t>Maximum Number of Tasks You Can Assign</t>
+  </si>
+  <si>
+    <t>Array, Binary Search, Monotonic Queue</t>
   </si>
 </sst>
 </file>
@@ -759,6 +768,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -787,12 +802,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,7 +1286,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1306,28 +1315,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="34" t="s">
         <v>36</v>
       </c>
       <c r="I1" s="37" t="s">
@@ -1341,75 +1350,75 @@
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
       <c r="Q1" s="39"/>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="25" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="26"/>
+      <c r="U1" s="28"/>
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="32" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="32" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="36"/>
       <c r="M3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="34"/>
+      <c r="O3" s="36"/>
       <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
@@ -2808,19 +2817,23 @@
       <c r="S24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="D25" s="23"/>
       <c r="E25" s="14" t="s">
         <v>23</v>
@@ -2868,13 +2881,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>23</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="B26" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="E26" s="13" t="s">
         <v>25</v>
       </c>
@@ -2885,10 +2904,10 @@
         <v>20</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>20</v>
@@ -4024,6 +4043,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R1:S2"/>
     <mergeCell ref="T1:U2"/>
@@ -4040,7 +4060,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="O2:O3"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E47">
     <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="Hard">
@@ -4250,8 +4269,10 @@
     <hyperlink ref="O24" r:id="rId122" xr:uid="{02EAB5B4-2537-4941-AA18-A064194FEAED}"/>
     <hyperlink ref="R24" r:id="rId123" xr:uid="{693A97D6-8E44-430E-8B91-875763F3F6AD}"/>
     <hyperlink ref="S24" r:id="rId124" xr:uid="{CCB32ED6-B113-4B87-8362-0DCAFF7417E2}"/>
+    <hyperlink ref="T24" r:id="rId125" xr:uid="{A3D58A5A-7966-470D-8946-909385A0F6F0}"/>
+    <hyperlink ref="U24" r:id="rId126" xr:uid="{F5FE9477-17BB-4CA2-9F14-5A516995B49A}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="landscape" r:id="rId125"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId127"/>
 </worksheet>
 </file>